--- a/DOC/単体テスト/EMSM_単体テスト仕様書-基本給情報更新.xlsx
+++ b/DOC/単体テスト/EMSM_単体テスト仕様書-基本給情報更新.xlsx
@@ -2144,16 +2144,7 @@
         <vertAlign val="baseline"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Yu Gothic UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
-      </rPr>
-      <t>②基本給未入力LEFT(③</t>
+②基本給未入力LEFT(③</t>
     </r>
   </si>
   <si>
@@ -2192,16 +2183,7 @@
         <vertAlign val="baseline"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Yu Gothic UI"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
-      </rPr>
-      <t>②基本給未入力LEFT(③</t>
+②基本給未入力LEFT(③</t>
     </r>
   </si>
   <si>
@@ -2216,16 +2198,7 @@
         <vertAlign val="baseline"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Klee one"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
-      </rPr>
-      <t>②基本給未入力LEFT(③</t>
+②基本給未入力LEFT(③</t>
     </r>
   </si>
   <si>
@@ -2384,63 +2357,9 @@
         <vertAlign val="baseline"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Klee one"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
-      </rPr>
-      <t>②ユーザ名に1２文字より大きい入力</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Klee one"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Klee one"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
-      </rPr>
-      <t>③他の項目には、正しい入力。</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Klee one"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Klee one"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
-      </rPr>
-      <t>④「更新」ボタン</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Klee one"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
-      </rPr>
-      <t xml:space="preserve">
+②ユーザ名に1２文字より大きい入力
+③他の項目には、正しい入力。
+④「更新」ボタン
 </t>
     </r>
   </si>
@@ -2619,6 +2538,89 @@
   </si>
   <si>
     <t>基本給管理リスト:    m_basesalary</t>
+  </si>
+  <si>
+    <t>自動計算＿残業単価</t>
+  </si>
+  <si>
+    <t>①基本給入力
+②</t>
+  </si>
+  <si>
+    <t>①基本給入力
+②稼働時間To</t>
+  </si>
+  <si>
+    <t>①基本給入力
+②稼働時間To入力</t>
+  </si>
+  <si>
+    <t>残業単価</t>
+  </si>
+  <si>
+    <t>残業単価値が表示される</t>
+  </si>
+  <si>
+    <t>自動計算＿控除単価</t>
+  </si>
+  <si>
+    <t>①基本給入力</t>
+  </si>
+  <si>
+    <t>①基本給入力
+②稼働時間From入力</t>
+  </si>
+  <si>
+    <t>控除単価</t>
+  </si>
+  <si>
+    <t>控除単価値が表示される</t>
+  </si>
+  <si>
+    <t>更新画面遷移</t>
+  </si>
+  <si>
+    <t>①更新ボダンをクリック</t>
+  </si>
+  <si>
+    <t>①更新画面へ遷移</t>
+  </si>
+  <si>
+    <t>DB 更新</t>
+  </si>
+  <si>
+    <t>DB 新規</t>
+  </si>
+  <si>
+    <t>baseSalaryInfoService</t>
+  </si>
+  <si>
+    <t>baseSalaryInfoServiceのupdateBaseSalaryInfoList</t>
+  </si>
+  <si>
+    <t>①登録ボタンクリック</t>
+  </si>
+  <si>
+    <t>BaseSalaryInfoService.insertBaseSalaryInfoDetail</t>
+  </si>
+  <si>
+    <t>BaseSalaryInfoServiceのupdateBaseSalaryInfoList</t>
+  </si>
+  <si>
+    <t>BaseSalaryInfoServiceのinsertBaseSalaryInfoDetail</t>
+  </si>
+  <si>
+    <t>①更新したデータをDBへ登録する</t>
+  </si>
+  <si>
+    <t>①新規追加したデータをDB へ登録する</t>
+  </si>
+  <si>
+    <t>①新規追加したデータをDB へ
+登録する</t>
+  </si>
+  <si>
+    <t>社員３</t>
   </si>
 </sst>
 </file>
@@ -2628,7 +2630,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="64">
+  <fonts count="102">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3026,8 +3028,244 @@
       <color theme="1"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Klee One SemiBold"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Klee one"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Klee One SemiBold"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Klee One"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Klee One SemiBold"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Klee One"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Klee One"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Klee One"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Klee One"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Klee One"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Klee One"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Klee One"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Klee One"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Klee One"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Klee One"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Klee One"/>
+      <u val="single"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Klee One"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Klee One"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Klee one"/>
+      <color theme="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Klee one"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Klee One SemiBold"/>
+      <color rgb="FFFF0000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Klee one"/>
+      <color theme="10"/>
+      <u val="single"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3072,8 +3310,16 @@
         <fgColor rgb="FFDDD9C2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF548ED5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="74">
+  <borders count="108">
     <border>
       <left/>
       <right/>
@@ -4059,6 +4305,474 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4075,7 +4789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="327">
+  <cellXfs count="584">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4981,6 +5695,707 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="62" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" horizontal="center"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="74" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="74" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="75" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="75" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="76" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="77" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="78" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="79" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="80" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="81" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="82" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="83" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="84" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="85" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="86" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="87" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="88" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="69" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="87" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="89" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="87" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="88" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="69" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="87" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="87" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="88" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="69" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="87" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="87" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="88" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="69" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="87" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="87" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="88" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="69" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="87" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="87" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="88" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="69" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="87" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="87" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="88" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="69" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="87" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="88" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="69" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="81" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="82" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="83" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="81" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="82" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="83" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="81" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="82" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="83" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="81" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="82" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="83" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="81" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="82" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="83" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="40" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="41" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="90" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="0" applyFill="1" borderId="89" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="0" applyFill="1" borderId="91" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="75" applyFont="1" fillId="0" applyFill="1" borderId="92" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="75" applyFont="1" fillId="0" applyFill="1" borderId="92" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="75" applyFont="1" fillId="0" applyFill="1" borderId="93" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="94" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="95" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="74" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="74" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="75" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="75" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="76" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="84" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="78" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="79" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="85" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="81" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="82" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="86" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="81" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="82" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="86" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="81" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="82" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="86" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="81" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="0" applyFill="1" borderId="91" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="78" applyFont="1" fillId="0" applyFill="1" borderId="91" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="0" applyFill="1" borderId="96" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="0" applyFill="1" borderId="96" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="0" applyFill="1" borderId="97" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="94" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="95" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="78" applyFont="1" fillId="0" applyFill="1" borderId="91" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="69" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="69" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="99" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="89" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="69" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="78" applyFont="1" fillId="0" applyFill="1" borderId="100" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="0" applyFill="1" borderId="89" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="0" applyFill="1" borderId="91" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="0" applyFill="1" borderId="96" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="0" applyFill="1" borderId="97" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="95" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="0" applyFill="1" borderId="100" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="0" applyFill="1" borderId="96" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="0" applyFill="1" borderId="97" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="0" applyFill="1" borderId="89" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="80" applyFont="1" fillId="0" applyFill="1" borderId="91" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="0" applyFill="1" borderId="96" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="0" applyFill="1" borderId="89" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="0" applyFill="1" borderId="100" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="80" applyFont="1" fillId="0" applyFill="1" borderId="96" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="80" applyFont="1" fillId="0" applyFill="1" borderId="96" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="80" applyFont="1" fillId="0" applyFill="1" borderId="97" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="80" applyFont="1" fillId="0" applyFill="1" borderId="89" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="81" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="99" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="89" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="101" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="102" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="103" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="0" applyFill="1" borderId="89" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="80" applyFont="1" fillId="0" applyFill="1" borderId="91" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="0" applyFill="1" borderId="94" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="0" applyFill="1" borderId="95" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="86" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="87" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="87" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="20" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="0"/>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="88" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="89" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="90" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="90" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="88" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="91" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="89" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="92" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="93" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="93" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="93" applyFont="1" fillId="0" applyFill="1" borderId="69" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="94" applyFont="1" fillId="0" applyFill="1" borderId="96" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="94" applyFont="1" fillId="0" applyFill="1" borderId="97" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="95" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="95" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="94" applyFont="1" fillId="0" applyFill="1" borderId="91" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="96" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="96" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="97" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="97" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="97" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="98" applyFont="1" fillId="0" applyFill="1" borderId="104" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="98" applyFont="1" fillId="0" applyFill="1" borderId="105" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="99" applyFont="1" fillId="8" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="99" applyFont="1" fillId="8" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="99" applyFont="1" fillId="0" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="99" applyFont="1" fillId="9" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="99" applyFont="1" fillId="9" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="100" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="98" applyFont="1" fillId="0" applyFill="1" borderId="106" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="98" applyFont="1" fillId="0" applyFill="1" borderId="107" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="99" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="99" applyFont="1" fillId="10" applyFill="1" borderId="14" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规 2" xfId="3" xr:uid="{14029D53-A3FE-4779-8312-6FCC10D87771}"/>
@@ -6135,11 +7550,11 @@
   <dimension ref="A1:CF52"/>
   <sheetViews>
     <sheetView showGridLines="false" topLeftCell="A5" zoomScale="89" zoomScaleNormal="89" workbookViewId="0" tabSelected="1">
-      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CW11" sqref="CW11" activeCellId="0"/>
+      <pane ySplit="4" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CX19" sqref="CX19" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="18.3" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2.09765625" style="46" customWidth="1"/>
     <col min="2" max="2" width="2.09765625" style="46" customWidth="1"/>
@@ -6212,21 +7627,21 @@
     <col min="69" max="69" width="2.09765625" style="46" customWidth="1"/>
     <col min="70" max="70" width="2.09765625" style="46" customWidth="1"/>
     <col min="71" max="71" width="2.09765625" style="46" customWidth="1"/>
-    <col min="72" max="72" width="2.09765625" style="46" customWidth="1"/>
-    <col min="73" max="73" width="2.09765625" style="46" customWidth="1"/>
-    <col min="74" max="74" width="2.09765625" style="46" customWidth="1"/>
-    <col min="75" max="75" width="2.09765625" style="46" customWidth="1"/>
+    <col min="72" max="72" width="2.140625" style="46" customWidth="1"/>
+    <col min="73" max="73" width="2.140625" style="46" customWidth="1"/>
+    <col min="74" max="74" width="2.140625" style="46" customWidth="1"/>
+    <col min="75" max="75" width="3.140625" style="46" customWidth="1"/>
     <col min="76" max="76" width="2.09765625" style="46" customWidth="1"/>
     <col min="77" max="77" width="2.09765625" style="46" customWidth="1"/>
     <col min="78" max="78" width="2.09765625" style="46" customWidth="1"/>
     <col min="79" max="79" width="2.09765625" style="46" customWidth="1"/>
     <col min="80" max="80" width="2.09765625" style="46" customWidth="1"/>
-    <col min="81" max="81" width="3.59765625" style="46" customWidth="1"/>
-    <col min="82" max="82" width="3.59765625" style="46" customWidth="1"/>
+    <col min="81" max="81" width="2.09765625" style="46" customWidth="1"/>
+    <col min="82" max="82" width="2.09765625" style="46" customWidth="1"/>
     <col min="83" max="83" width="3.59765625" style="46" customWidth="1"/>
     <col min="84" max="84" width="3.59765625" style="46" customWidth="1"/>
-    <col min="85" max="85" width="2.09765625" style="46" customWidth="1"/>
-    <col min="86" max="86" width="2.09765625" style="46" customWidth="1"/>
+    <col min="85" max="85" width="3.59765625" style="46" customWidth="1"/>
+    <col min="86" max="86" width="3.59765625" style="46" customWidth="1"/>
     <col min="87" max="87" width="2.09765625" style="46" customWidth="1"/>
     <col min="88" max="88" width="2.09765625" style="46" customWidth="1"/>
     <col min="89" max="89" width="2.09765625" style="46" customWidth="1"/>
@@ -6238,259 +7653,262 @@
     <col min="95" max="95" width="2.09765625" style="46" customWidth="1"/>
     <col min="96" max="96" width="2.09765625" style="46" customWidth="1"/>
     <col min="97" max="97" width="2.09765625" style="46" customWidth="1"/>
-    <col min="98" max="16384" width="8.19921875" style="46"/>
+    <col min="98" max="98" width="2.09765625" style="46" customWidth="1"/>
+    <col min="99" max="99" width="2.09765625" style="46" customWidth="1"/>
+    <col min="100" max="100" width="2.09765625" style="46" customWidth="1"/>
+    <col min="101" max="16384" width="8.19921875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" ht="12" customFormat="1" s="36">
-      <c r="A1" s="32"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
-      <c r="AW1" s="33"/>
-      <c r="AX1" s="33"/>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="33"/>
-      <c r="BA1" s="33"/>
-      <c r="BB1" s="33"/>
-      <c r="BC1" s="33"/>
-      <c r="BD1" s="33"/>
-      <c r="BE1" s="33"/>
-      <c r="BF1" s="33"/>
-      <c r="BG1" s="33"/>
-      <c r="BH1" s="33"/>
-      <c r="BI1" s="33"/>
-      <c r="BJ1" s="33"/>
-      <c r="BK1" s="33"/>
-      <c r="BL1" s="33"/>
-      <c r="BM1" s="33"/>
-      <c r="BN1" s="33"/>
-      <c r="BO1" s="33"/>
-      <c r="BP1" s="33"/>
-      <c r="BQ1" s="35"/>
-    </row>
-    <row r="2" customHeight="1" ht="12" customFormat="1" s="36">
-      <c r="A2" s="114" t="s">
+    <row r="1" customHeight="1" ht="12" customFormat="1" s="514">
+      <c r="A1" s="515"/>
+      <c r="B1" s="516"/>
+      <c r="C1" s="516"/>
+      <c r="D1" s="516"/>
+      <c r="E1" s="516"/>
+      <c r="F1" s="516"/>
+      <c r="G1" s="516"/>
+      <c r="H1" s="516"/>
+      <c r="I1" s="516"/>
+      <c r="J1" s="516"/>
+      <c r="K1" s="516"/>
+      <c r="L1" s="516"/>
+      <c r="M1" s="516"/>
+      <c r="N1" s="516"/>
+      <c r="O1" s="516"/>
+      <c r="P1" s="516"/>
+      <c r="Q1" s="516"/>
+      <c r="R1" s="516"/>
+      <c r="S1" s="516"/>
+      <c r="T1" s="516"/>
+      <c r="U1" s="516"/>
+      <c r="V1" s="516"/>
+      <c r="W1" s="516"/>
+      <c r="X1" s="516"/>
+      <c r="Y1" s="516"/>
+      <c r="Z1" s="516"/>
+      <c r="AA1" s="516"/>
+      <c r="AB1" s="516"/>
+      <c r="AC1" s="516"/>
+      <c r="AD1" s="517"/>
+      <c r="AE1" s="516"/>
+      <c r="AF1" s="516"/>
+      <c r="AG1" s="516"/>
+      <c r="AH1" s="516"/>
+      <c r="AI1" s="516"/>
+      <c r="AJ1" s="516"/>
+      <c r="AK1" s="516"/>
+      <c r="AL1" s="516"/>
+      <c r="AM1" s="516"/>
+      <c r="AN1" s="516"/>
+      <c r="AO1" s="516"/>
+      <c r="AP1" s="516"/>
+      <c r="AQ1" s="516"/>
+      <c r="AR1" s="516"/>
+      <c r="AS1" s="516"/>
+      <c r="AT1" s="516"/>
+      <c r="AU1" s="516"/>
+      <c r="AV1" s="516"/>
+      <c r="AW1" s="516"/>
+      <c r="AX1" s="516"/>
+      <c r="AY1" s="516"/>
+      <c r="AZ1" s="516"/>
+      <c r="BA1" s="516"/>
+      <c r="BB1" s="516"/>
+      <c r="BC1" s="516"/>
+      <c r="BD1" s="516"/>
+      <c r="BE1" s="516"/>
+      <c r="BF1" s="516"/>
+      <c r="BG1" s="516"/>
+      <c r="BH1" s="516"/>
+      <c r="BI1" s="516"/>
+      <c r="BJ1" s="516"/>
+      <c r="BK1" s="516"/>
+      <c r="BL1" s="516"/>
+      <c r="BM1" s="516"/>
+      <c r="BN1" s="516"/>
+      <c r="BO1" s="516"/>
+      <c r="BP1" s="516"/>
+      <c r="BQ1" s="518"/>
+    </row>
+    <row r="2" customHeight="1" ht="12" customFormat="1" s="514">
+      <c r="A2" s="519" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="38"/>
-      <c r="BB2" s="38"/>
-      <c r="BC2" s="38"/>
-      <c r="BD2" s="38"/>
-      <c r="BE2" s="38"/>
-      <c r="BF2" s="38"/>
-      <c r="BG2" s="38"/>
-      <c r="BH2" s="38"/>
-      <c r="BI2" s="38"/>
-      <c r="BJ2" s="38"/>
-      <c r="BK2" s="38"/>
-      <c r="BL2" s="38"/>
-      <c r="BM2" s="38"/>
-      <c r="BN2" s="38"/>
-      <c r="BO2" s="38"/>
-      <c r="BP2" s="38"/>
-      <c r="BQ2" s="35"/>
-    </row>
-    <row r="3" customHeight="1" ht="12" customFormat="1" s="36">
-      <c r="A3" s="114"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="115"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="37"/>
-      <c r="AW3" s="37"/>
-      <c r="AX3" s="37"/>
-      <c r="AY3" s="37"/>
-      <c r="AZ3" s="37"/>
-      <c r="BA3" s="37"/>
-      <c r="BB3" s="37"/>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="37"/>
-      <c r="BE3" s="37"/>
-      <c r="BF3" s="37"/>
-      <c r="BG3" s="37"/>
-      <c r="BH3" s="37"/>
-      <c r="BI3" s="37"/>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="37"/>
-      <c r="BL3" s="37"/>
-      <c r="BM3" s="37"/>
-      <c r="BN3" s="37"/>
-      <c r="BO3" s="37"/>
-      <c r="BP3" s="37"/>
-      <c r="BQ3" s="39"/>
-    </row>
-    <row r="4" customHeight="1" ht="12" customFormat="1" s="36">
-      <c r="A4" s="116" t="s">
+      <c r="B2" s="520"/>
+      <c r="C2" s="520"/>
+      <c r="D2" s="520"/>
+      <c r="E2" s="520"/>
+      <c r="F2" s="520"/>
+      <c r="G2" s="520"/>
+      <c r="H2" s="520"/>
+      <c r="I2" s="520"/>
+      <c r="J2" s="520"/>
+      <c r="K2" s="520"/>
+      <c r="L2" s="520"/>
+      <c r="M2" s="520"/>
+      <c r="N2" s="520"/>
+      <c r="O2" s="520"/>
+      <c r="P2" s="520"/>
+      <c r="Q2" s="520"/>
+      <c r="R2" s="520"/>
+      <c r="S2" s="520"/>
+      <c r="T2" s="520"/>
+      <c r="U2" s="520"/>
+      <c r="V2" s="520"/>
+      <c r="W2" s="520"/>
+      <c r="X2" s="520"/>
+      <c r="Y2" s="520"/>
+      <c r="Z2" s="520"/>
+      <c r="AA2" s="520"/>
+      <c r="AB2" s="520"/>
+      <c r="AC2" s="520"/>
+      <c r="AD2" s="520"/>
+      <c r="AU2" s="521"/>
+      <c r="AV2" s="521"/>
+      <c r="AW2" s="521"/>
+      <c r="AX2" s="521"/>
+      <c r="AY2" s="521"/>
+      <c r="AZ2" s="521"/>
+      <c r="BA2" s="522"/>
+      <c r="BB2" s="522"/>
+      <c r="BC2" s="522"/>
+      <c r="BD2" s="522"/>
+      <c r="BE2" s="522"/>
+      <c r="BF2" s="522"/>
+      <c r="BG2" s="522"/>
+      <c r="BH2" s="522"/>
+      <c r="BI2" s="522"/>
+      <c r="BJ2" s="522"/>
+      <c r="BK2" s="522"/>
+      <c r="BL2" s="522"/>
+      <c r="BM2" s="522"/>
+      <c r="BN2" s="522"/>
+      <c r="BO2" s="522"/>
+      <c r="BP2" s="522"/>
+      <c r="BQ2" s="518"/>
+    </row>
+    <row r="3" customHeight="1" ht="12" customFormat="1" s="514">
+      <c r="A3" s="519"/>
+      <c r="B3" s="520"/>
+      <c r="C3" s="520"/>
+      <c r="D3" s="520"/>
+      <c r="E3" s="520"/>
+      <c r="F3" s="520"/>
+      <c r="G3" s="520"/>
+      <c r="H3" s="520"/>
+      <c r="I3" s="520"/>
+      <c r="J3" s="520"/>
+      <c r="K3" s="520"/>
+      <c r="L3" s="520"/>
+      <c r="M3" s="520"/>
+      <c r="N3" s="520"/>
+      <c r="O3" s="520"/>
+      <c r="P3" s="520"/>
+      <c r="Q3" s="520"/>
+      <c r="R3" s="520"/>
+      <c r="S3" s="520"/>
+      <c r="T3" s="520"/>
+      <c r="U3" s="520"/>
+      <c r="V3" s="520"/>
+      <c r="W3" s="520"/>
+      <c r="X3" s="520"/>
+      <c r="Y3" s="520"/>
+      <c r="Z3" s="520"/>
+      <c r="AA3" s="520"/>
+      <c r="AB3" s="520"/>
+      <c r="AC3" s="520"/>
+      <c r="AD3" s="520"/>
+      <c r="AU3" s="521"/>
+      <c r="AV3" s="521"/>
+      <c r="AW3" s="521"/>
+      <c r="AX3" s="521"/>
+      <c r="AY3" s="521"/>
+      <c r="AZ3" s="521"/>
+      <c r="BA3" s="521"/>
+      <c r="BB3" s="521"/>
+      <c r="BC3" s="521"/>
+      <c r="BD3" s="521"/>
+      <c r="BE3" s="521"/>
+      <c r="BF3" s="521"/>
+      <c r="BG3" s="521"/>
+      <c r="BH3" s="521"/>
+      <c r="BI3" s="521"/>
+      <c r="BJ3" s="521"/>
+      <c r="BK3" s="521"/>
+      <c r="BL3" s="521"/>
+      <c r="BM3" s="521"/>
+      <c r="BN3" s="521"/>
+      <c r="BO3" s="521"/>
+      <c r="BP3" s="521"/>
+      <c r="BQ3" s="523"/>
+    </row>
+    <row r="4" customHeight="1" ht="12" customFormat="1" s="514">
+      <c r="A4" s="524" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="119" t="s">
+      <c r="B4" s="525"/>
+      <c r="C4" s="525"/>
+      <c r="D4" s="525"/>
+      <c r="E4" s="525"/>
+      <c r="F4" s="526"/>
+      <c r="G4" s="525"/>
+      <c r="H4" s="525"/>
+      <c r="I4" s="525"/>
+      <c r="J4" s="525"/>
+      <c r="K4" s="527" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="122" t="s">
+      <c r="L4" s="528"/>
+      <c r="M4" s="528"/>
+      <c r="N4" s="528"/>
+      <c r="O4" s="528"/>
+      <c r="P4" s="528"/>
+      <c r="Q4" s="528"/>
+      <c r="R4" s="529"/>
+      <c r="S4" s="530" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="123"/>
-      <c r="U4" s="123"/>
-      <c r="V4" s="123"/>
-      <c r="W4" s="123"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="125" t="s">
+      <c r="T4" s="531"/>
+      <c r="U4" s="531"/>
+      <c r="V4" s="531"/>
+      <c r="W4" s="531"/>
+      <c r="X4" s="532"/>
+      <c r="Y4" s="533" t="s">
         <v>59</v>
       </c>
-      <c r="Z4" s="126"/>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="126"/>
-      <c r="AD4" s="126"/>
-      <c r="AE4" s="126"/>
-      <c r="AF4" s="126"/>
-      <c r="AG4" s="126"/>
-      <c r="AH4" s="126"/>
-      <c r="AI4" s="126"/>
-      <c r="AJ4" s="126"/>
-      <c r="AK4" s="126"/>
-      <c r="AL4" s="126"/>
-      <c r="AM4" s="126"/>
-      <c r="AN4" s="126"/>
-      <c r="AO4" s="126"/>
-      <c r="AP4" s="126"/>
-      <c r="AQ4" s="126"/>
-      <c r="AR4" s="126"/>
-      <c r="AS4" s="126"/>
-      <c r="AT4" s="126"/>
-      <c r="AU4" s="126"/>
-      <c r="AV4" s="126"/>
-      <c r="AW4" s="126"/>
-      <c r="AX4" s="126"/>
-      <c r="AY4" s="126"/>
-      <c r="AZ4" s="127"/>
-      <c r="BA4" s="128" t="s">
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="41"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="41"/>
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="534" t="s">
         <v>6</v>
       </c>
-      <c r="BB4" s="129"/>
-      <c r="BC4" s="130"/>
-      <c r="BD4" s="131">
+      <c r="BB4" s="535"/>
+      <c r="BC4" s="536"/>
+      <c r="BD4" s="537">
         <v>45077</v>
       </c>
       <c r="BE4" s="132"/>
@@ -6498,49 +7916,49 @@
       <c r="BG4" s="132"/>
       <c r="BH4" s="132"/>
       <c r="BI4" s="132"/>
-      <c r="BJ4" s="128" t="s">
+      <c r="BJ4" s="534" t="s">
         <v>38</v>
       </c>
-      <c r="BK4" s="129"/>
-      <c r="BL4" s="130"/>
-      <c r="BM4" s="131" t="s">
+      <c r="BK4" s="535"/>
+      <c r="BL4" s="536"/>
+      <c r="BM4" s="537" t="s">
         <v>61</v>
       </c>
       <c r="BN4" s="132"/>
       <c r="BO4" s="132"/>
       <c r="BP4" s="132"/>
-      <c r="BQ4" s="43"/>
-    </row>
-    <row r="5" customHeight="1" ht="12" customFormat="1" s="36">
-      <c r="A5" s="133" t="s">
+      <c r="BQ4" s="538"/>
+    </row>
+    <row r="5" customHeight="1" ht="19" customFormat="1" s="514">
+      <c r="A5" s="539" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="133" t="s">
+      <c r="B5" s="540"/>
+      <c r="C5" s="540"/>
+      <c r="D5" s="540"/>
+      <c r="E5" s="540"/>
+      <c r="F5" s="541"/>
+      <c r="G5" s="540"/>
+      <c r="H5" s="540"/>
+      <c r="I5" s="540"/>
+      <c r="J5" s="540"/>
+      <c r="K5" s="542"/>
+      <c r="L5" s="542"/>
+      <c r="M5" s="542"/>
+      <c r="N5" s="542"/>
+      <c r="O5" s="542"/>
+      <c r="P5" s="542"/>
+      <c r="Q5" s="542"/>
+      <c r="R5" s="543"/>
+      <c r="S5" s="539" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="134"/>
-      <c r="U5" s="134"/>
-      <c r="V5" s="134"/>
-      <c r="W5" s="134"/>
-      <c r="X5" s="135"/>
-      <c r="Y5" s="138"/>
+      <c r="T5" s="540"/>
+      <c r="U5" s="540"/>
+      <c r="V5" s="540"/>
+      <c r="W5" s="540"/>
+      <c r="X5" s="541"/>
+      <c r="Y5" s="544"/>
       <c r="Z5" s="139"/>
       <c r="AA5" s="139"/>
       <c r="AB5" s="139"/>
@@ -6568,54 +7986,54 @@
       <c r="AX5" s="139"/>
       <c r="AY5" s="139"/>
       <c r="AZ5" s="140"/>
-      <c r="BA5" s="141" t="s">
+      <c r="BA5" s="545" t="s">
         <v>7</v>
       </c>
-      <c r="BB5" s="142"/>
-      <c r="BC5" s="143"/>
-      <c r="BD5" s="142"/>
-      <c r="BE5" s="142"/>
-      <c r="BF5" s="142"/>
-      <c r="BG5" s="142"/>
-      <c r="BH5" s="142"/>
-      <c r="BI5" s="142"/>
-      <c r="BJ5" s="141" t="s">
+      <c r="BB5" s="546"/>
+      <c r="BC5" s="547"/>
+      <c r="BD5" s="546"/>
+      <c r="BE5" s="546"/>
+      <c r="BF5" s="546"/>
+      <c r="BG5" s="546"/>
+      <c r="BH5" s="546"/>
+      <c r="BI5" s="546"/>
+      <c r="BJ5" s="545" t="s">
         <v>39</v>
       </c>
-      <c r="BK5" s="142"/>
-      <c r="BL5" s="143"/>
-      <c r="BM5" s="142"/>
+      <c r="BK5" s="546"/>
+      <c r="BL5" s="547"/>
+      <c r="BM5" s="546"/>
       <c r="BN5" s="139"/>
       <c r="BO5" s="139"/>
       <c r="BP5" s="139"/>
-      <c r="BQ5" s="45"/>
-    </row>
-    <row r="6">
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="107"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
+      <c r="BQ5" s="548"/>
+    </row>
+    <row r="6" ht="18" customFormat="1" s="46">
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
       <c r="AF6" s="46"/>
-      <c r="BL6" s="107"/>
-      <c r="BM6" s="107"/>
-      <c r="BN6" s="107"/>
-      <c r="BO6" s="107"/>
-      <c r="BP6" s="107"/>
-      <c r="BQ6" s="107"/>
-    </row>
-    <row r="7">
+      <c r="BL6" s="48"/>
+      <c r="BM6" s="48"/>
+      <c r="BN6" s="48"/>
+      <c r="BO6" s="48"/>
+      <c r="BP6" s="48"/>
+      <c r="BQ6" s="48"/>
+    </row>
+    <row r="7" ht="18" customFormat="1" s="46">
       <c r="A7" s="101" t="s">
         <v>10</v>
       </c>
@@ -6702,26 +8120,28 @@
       <c r="BR7" s="105"/>
       <c r="BS7" s="105"/>
       <c r="BT7" s="105"/>
-      <c r="BU7" s="102"/>
-      <c r="BV7" s="108" t="s">
+      <c r="BU7" s="105"/>
+      <c r="BV7" s="105"/>
+      <c r="BW7" s="102"/>
+      <c r="BX7" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="BW7" s="109"/>
-      <c r="BX7" s="109"/>
-      <c r="BY7" s="110"/>
-      <c r="BZ7" s="108" t="s">
+      <c r="BY7" s="109"/>
+      <c r="BZ7" s="109"/>
+      <c r="CA7" s="110"/>
+      <c r="CB7" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="CA7" s="109"/>
-      <c r="CB7" s="110"/>
-      <c r="CC7" s="108" t="s">
+      <c r="CC7" s="109"/>
+      <c r="CD7" s="110"/>
+      <c r="CE7" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="CD7" s="109"/>
-      <c r="CE7" s="109"/>
-      <c r="CF7" s="110"/>
-    </row>
-    <row r="8">
+      <c r="CF7" s="109"/>
+      <c r="CG7" s="109"/>
+      <c r="CH7" s="110"/>
+    </row>
+    <row r="8" ht="18" customFormat="1" s="46">
       <c r="A8" s="103"/>
       <c r="B8" s="104"/>
       <c r="C8" s="103"/>
@@ -6812,20 +8232,22 @@
       <c r="BR8" s="106"/>
       <c r="BS8" s="106"/>
       <c r="BT8" s="106"/>
-      <c r="BU8" s="104"/>
-      <c r="BV8" s="111"/>
-      <c r="BW8" s="112"/>
-      <c r="BX8" s="112"/>
-      <c r="BY8" s="113"/>
-      <c r="BZ8" s="111"/>
-      <c r="CA8" s="112"/>
-      <c r="CB8" s="113"/>
-      <c r="CC8" s="111"/>
-      <c r="CD8" s="112"/>
-      <c r="CE8" s="112"/>
-      <c r="CF8" s="113"/>
-    </row>
-    <row r="9" customHeight="1" ht="60">
+      <c r="BU8" s="106"/>
+      <c r="BV8" s="106"/>
+      <c r="BW8" s="104"/>
+      <c r="BX8" s="111"/>
+      <c r="BY8" s="112"/>
+      <c r="BZ8" s="112"/>
+      <c r="CA8" s="113"/>
+      <c r="CB8" s="111"/>
+      <c r="CC8" s="112"/>
+      <c r="CD8" s="113"/>
+      <c r="CE8" s="111"/>
+      <c r="CF8" s="112"/>
+      <c r="CG8" s="112"/>
+      <c r="CH8" s="113"/>
+    </row>
+    <row r="9" customHeight="1" ht="60" customFormat="1" s="46">
       <c r="A9" s="91">
         <v>1</v>
       </c>
@@ -6877,7 +8299,7 @@
       </c>
       <c r="AL9" s="41"/>
       <c r="AM9" s="42"/>
-      <c r="AN9" s="147" t="s">
+      <c r="AN9" s="549" t="s">
         <v>360</v>
       </c>
       <c r="AO9" s="96"/>
@@ -6900,7 +8322,7 @@
       <c r="BD9" s="96"/>
       <c r="BE9" s="96"/>
       <c r="BF9" s="97"/>
-      <c r="BG9" s="148" t="s">
+      <c r="BG9" s="550" t="s">
         <v>363</v>
       </c>
       <c r="BH9" s="99"/>
@@ -6916,26 +8338,28 @@
       <c r="BR9" s="99"/>
       <c r="BS9" s="99"/>
       <c r="BT9" s="99"/>
-      <c r="BU9" s="100"/>
-      <c r="BV9" s="91" t="s">
+      <c r="BU9" s="99"/>
+      <c r="BV9" s="99"/>
+      <c r="BW9" s="100"/>
+      <c r="BX9" s="91" t="s">
         <v>364</v>
       </c>
-      <c r="BW9" s="92"/>
-      <c r="BX9" s="92"/>
-      <c r="BY9" s="93"/>
-      <c r="BZ9" s="91" t="s">
+      <c r="BY9" s="92"/>
+      <c r="BZ9" s="92"/>
+      <c r="CA9" s="93"/>
+      <c r="CB9" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="CA9" s="92"/>
-      <c r="CB9" s="93"/>
-      <c r="CC9" s="144">
+      <c r="CC9" s="92"/>
+      <c r="CD9" s="93"/>
+      <c r="CE9" s="144">
         <v>45090</v>
       </c>
-      <c r="CD9" s="145"/>
-      <c r="CE9" s="145"/>
-      <c r="CF9" s="146"/>
-    </row>
-    <row r="10" customHeight="1" ht="66">
+      <c r="CF9" s="145"/>
+      <c r="CG9" s="145"/>
+      <c r="CH9" s="146"/>
+    </row>
+    <row r="10" customHeight="1" ht="66" customFormat="1" s="46">
       <c r="A10" s="91">
         <v>2</v>
       </c>
@@ -6992,7 +8416,7 @@
       <c r="AP10" s="96"/>
       <c r="AQ10" s="96"/>
       <c r="AR10" s="97"/>
-      <c r="AS10" s="152" t="s">
+      <c r="AS10" s="549" t="s">
         <v>368</v>
       </c>
       <c r="AT10" s="96"/>
@@ -7008,41 +8432,41 @@
       <c r="BD10" s="96"/>
       <c r="BE10" s="96"/>
       <c r="BF10" s="97"/>
-      <c r="BG10" s="183" t="s">
+      <c r="BG10" s="551" t="s">
         <v>370</v>
       </c>
       <c r="BH10" s="47"/>
       <c r="BI10" s="47"/>
       <c r="BL10" s="46"/>
       <c r="BO10" s="156"/>
-      <c r="BV10" s="91" t="s">
+      <c r="BX10" s="91" t="s">
         <v>364</v>
       </c>
-      <c r="BW10" s="92"/>
-      <c r="BX10" s="92"/>
-      <c r="BY10" s="93"/>
-      <c r="BZ10" s="91" t="s">
+      <c r="BY10" s="92"/>
+      <c r="BZ10" s="92"/>
+      <c r="CA10" s="93"/>
+      <c r="CB10" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="CA10" s="92"/>
-      <c r="CB10" s="93"/>
-      <c r="CC10" s="144">
+      <c r="CC10" s="92"/>
+      <c r="CD10" s="93"/>
+      <c r="CE10" s="144">
         <v>45090</v>
       </c>
-      <c r="CD10" s="145"/>
-      <c r="CE10" s="145"/>
-      <c r="CF10" s="146"/>
-      <c r="CU10" s="149"/>
-      <c r="CV10" s="150"/>
-      <c r="CW10" s="150"/>
-      <c r="CX10" s="151"/>
-    </row>
-    <row r="11" customHeight="1" ht="81">
+      <c r="CF10" s="145"/>
+      <c r="CG10" s="145"/>
+      <c r="CH10" s="146"/>
+      <c r="CX10" s="149"/>
+      <c r="CY10" s="149"/>
+      <c r="CZ10" s="149"/>
+      <c r="DA10" s="149"/>
+    </row>
+    <row r="11" customHeight="1" ht="81" customFormat="1" s="46">
       <c r="A11" s="91">
         <v>3</v>
       </c>
       <c r="B11" s="93"/>
-      <c r="C11" s="182" t="s">
+      <c r="C11" s="552" t="s">
         <v>371</v>
       </c>
       <c r="D11" s="52"/>
@@ -7098,7 +8522,7 @@
       <c r="AP11" s="96"/>
       <c r="AQ11" s="96"/>
       <c r="AR11" s="97"/>
-      <c r="AS11" s="147" t="s">
+      <c r="AS11" s="549" t="s">
         <v>375</v>
       </c>
       <c r="AT11" s="96"/>
@@ -7130,32 +8554,34 @@
       <c r="BR11" s="99"/>
       <c r="BS11" s="99"/>
       <c r="BT11" s="99"/>
-      <c r="BU11" s="100"/>
-      <c r="BV11" s="91" t="s">
+      <c r="BU11" s="99"/>
+      <c r="BV11" s="99"/>
+      <c r="BW11" s="100"/>
+      <c r="BX11" s="91" t="s">
         <v>364</v>
       </c>
-      <c r="BW11" s="92"/>
-      <c r="BX11" s="92"/>
-      <c r="BY11" s="93"/>
-      <c r="BZ11" s="91" t="s">
+      <c r="BY11" s="92"/>
+      <c r="BZ11" s="92"/>
+      <c r="CA11" s="93"/>
+      <c r="CB11" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="CA11" s="92"/>
-      <c r="CB11" s="93"/>
-      <c r="CC11" s="144">
+      <c r="CC11" s="92"/>
+      <c r="CD11" s="93"/>
+      <c r="CE11" s="144">
         <v>45090</v>
       </c>
-      <c r="CD11" s="145"/>
-      <c r="CE11" s="145"/>
-      <c r="CF11" s="146"/>
-    </row>
-    <row r="12" customHeight="1" ht="84">
+      <c r="CF11" s="145"/>
+      <c r="CG11" s="145"/>
+      <c r="CH11" s="146"/>
+    </row>
+    <row r="12" customHeight="1" ht="78" customFormat="1" s="46">
       <c r="A12" s="91">
         <v>4</v>
       </c>
       <c r="B12" s="93"/>
       <c r="C12" s="51" t="s">
-        <v>379</v>
+        <v>447</v>
       </c>
       <c r="D12" s="52"/>
       <c r="E12" s="41"/>
@@ -7185,9 +8611,7 @@
       <c r="Y12" s="93"/>
       <c r="Z12" s="91"/>
       <c r="AA12" s="93"/>
-      <c r="AB12" s="91" t="s">
-        <v>64</v>
-      </c>
+      <c r="AB12" s="91"/>
       <c r="AC12" s="93"/>
       <c r="AD12" s="91"/>
       <c r="AE12" s="92"/>
@@ -7196,20 +8620,20 @@
       <c r="AH12" s="50"/>
       <c r="AI12" s="41"/>
       <c r="AJ12" s="42"/>
-      <c r="AK12" s="50" t="s">
+      <c r="AK12" s="553" t="s">
         <v>34</v>
       </c>
       <c r="AL12" s="41"/>
       <c r="AM12" s="42"/>
       <c r="AN12" s="95" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="AO12" s="96"/>
       <c r="AP12" s="96"/>
       <c r="AQ12" s="96"/>
       <c r="AR12" s="97"/>
       <c r="AS12" s="95" t="s">
-        <v>375</v>
+        <v>448</v>
       </c>
       <c r="AT12" s="96"/>
       <c r="AU12" s="96"/>
@@ -7224,52 +8648,50 @@
       <c r="BD12" s="96"/>
       <c r="BE12" s="96"/>
       <c r="BF12" s="97"/>
-      <c r="BG12" s="98" t="s">
-        <v>381</v>
-      </c>
-      <c r="BH12" s="99"/>
-      <c r="BI12" s="99"/>
-      <c r="BJ12" s="99"/>
-      <c r="BK12" s="99"/>
-      <c r="BL12" s="99"/>
-      <c r="BM12" s="99"/>
-      <c r="BN12" s="99"/>
-      <c r="BO12" s="99"/>
-      <c r="BP12" s="99"/>
-      <c r="BQ12" s="99"/>
-      <c r="BR12" s="99"/>
-      <c r="BS12" s="99"/>
-      <c r="BT12" s="99"/>
-      <c r="BU12" s="100"/>
-      <c r="BV12" s="91" t="s">
+      <c r="BG12" s="95" t="s">
+        <v>449</v>
+      </c>
+      <c r="BH12" s="96"/>
+      <c r="BI12" s="96"/>
+      <c r="BJ12" s="96"/>
+      <c r="BK12" s="96"/>
+      <c r="BL12" s="96"/>
+      <c r="BM12" s="96"/>
+      <c r="BN12" s="96"/>
+      <c r="BO12" s="96"/>
+      <c r="BP12" s="96"/>
+      <c r="BQ12" s="96"/>
+      <c r="BR12" s="96"/>
+      <c r="BS12" s="96"/>
+      <c r="BT12" s="96"/>
+      <c r="BU12" s="96"/>
+      <c r="BV12" s="96"/>
+      <c r="BW12" s="97"/>
+      <c r="BX12" s="91" t="s">
         <v>364</v>
       </c>
-      <c r="BW12" s="92"/>
-      <c r="BX12" s="92"/>
-      <c r="BY12" s="93"/>
-      <c r="BZ12" s="91" t="s">
+      <c r="BY12" s="92"/>
+      <c r="BZ12" s="92"/>
+      <c r="CA12" s="93"/>
+      <c r="CB12" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="CA12" s="92"/>
-      <c r="CB12" s="93"/>
-      <c r="CC12" s="144">
+      <c r="CC12" s="92"/>
+      <c r="CD12" s="93"/>
+      <c r="CE12" s="144">
         <v>45090</v>
       </c>
-      <c r="CD12" s="145"/>
-      <c r="CE12" s="145"/>
-      <c r="CF12" s="146"/>
-      <c r="CW12" s="324"/>
-      <c r="CX12" s="325"/>
-      <c r="CY12" s="325"/>
-      <c r="CZ12" s="326"/>
-    </row>
-    <row r="13" customHeight="1" ht="78">
+      <c r="CF12" s="145"/>
+      <c r="CG12" s="145"/>
+      <c r="CH12" s="146"/>
+    </row>
+    <row r="13" customHeight="1" ht="84" customFormat="1" s="46">
       <c r="A13" s="91">
         <v>5</v>
       </c>
       <c r="B13" s="93"/>
-      <c r="C13" s="51" t="s">
-        <v>377</v>
+      <c r="C13" s="554" t="s">
+        <v>414</v>
       </c>
       <c r="D13" s="52"/>
       <c r="E13" s="41"/>
@@ -7299,85 +8721,91 @@
       <c r="Y13" s="93"/>
       <c r="Z13" s="91"/>
       <c r="AA13" s="93"/>
-      <c r="AB13" s="91"/>
+      <c r="AB13" s="91" t="s">
+        <v>64</v>
+      </c>
       <c r="AC13" s="93"/>
-      <c r="AD13" s="91"/>
+      <c r="AD13" s="91" t="s">
+        <v>64</v>
+      </c>
       <c r="AE13" s="92"/>
       <c r="AF13" s="92"/>
       <c r="AG13" s="93"/>
       <c r="AH13" s="50"/>
       <c r="AI13" s="41"/>
       <c r="AJ13" s="42"/>
-      <c r="AK13" s="194" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL13" s="41"/>
-      <c r="AM13" s="42"/>
+      <c r="AK13" s="248" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL13" s="249"/>
+      <c r="AM13" s="250"/>
       <c r="AN13" s="95" t="s">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="AO13" s="96"/>
       <c r="AP13" s="96"/>
       <c r="AQ13" s="96"/>
       <c r="AR13" s="97"/>
-      <c r="AS13" s="95" t="s">
-        <v>384</v>
-      </c>
-      <c r="AT13" s="96"/>
-      <c r="AU13" s="96"/>
-      <c r="AV13" s="96"/>
-      <c r="AW13" s="96"/>
-      <c r="AX13" s="96"/>
-      <c r="AY13" s="96"/>
-      <c r="AZ13" s="96"/>
-      <c r="BA13" s="96"/>
-      <c r="BB13" s="96"/>
-      <c r="BC13" s="96"/>
-      <c r="BD13" s="96"/>
-      <c r="BE13" s="96"/>
-      <c r="BF13" s="97"/>
-      <c r="BG13" s="95" t="s">
-        <v>385</v>
-      </c>
-      <c r="BH13" s="96"/>
-      <c r="BI13" s="96"/>
-      <c r="BJ13" s="96"/>
-      <c r="BK13" s="96"/>
-      <c r="BL13" s="96"/>
-      <c r="BM13" s="96"/>
-      <c r="BN13" s="96"/>
-      <c r="BO13" s="96"/>
-      <c r="BP13" s="96"/>
-      <c r="BQ13" s="96"/>
-      <c r="BR13" s="96"/>
-      <c r="BS13" s="96"/>
-      <c r="BT13" s="96"/>
-      <c r="BU13" s="97"/>
-      <c r="BV13" s="91" t="s">
+      <c r="AS13" s="245" t="s">
+        <v>417</v>
+      </c>
+      <c r="AT13" s="246"/>
+      <c r="AU13" s="246"/>
+      <c r="AV13" s="246"/>
+      <c r="AW13" s="246"/>
+      <c r="AX13" s="246"/>
+      <c r="AY13" s="246"/>
+      <c r="AZ13" s="246"/>
+      <c r="BA13" s="246"/>
+      <c r="BB13" s="246"/>
+      <c r="BC13" s="246"/>
+      <c r="BD13" s="246"/>
+      <c r="BE13" s="246"/>
+      <c r="BF13" s="247"/>
+      <c r="BG13" s="98" t="s">
+        <v>412</v>
+      </c>
+      <c r="BH13" s="99"/>
+      <c r="BI13" s="99"/>
+      <c r="BJ13" s="99"/>
+      <c r="BK13" s="99"/>
+      <c r="BL13" s="99"/>
+      <c r="BM13" s="99"/>
+      <c r="BN13" s="99"/>
+      <c r="BO13" s="99"/>
+      <c r="BP13" s="99"/>
+      <c r="BQ13" s="99"/>
+      <c r="BR13" s="99"/>
+      <c r="BS13" s="99"/>
+      <c r="BT13" s="99"/>
+      <c r="BU13" s="99"/>
+      <c r="BV13" s="99"/>
+      <c r="BW13" s="100"/>
+      <c r="BX13" s="91" t="s">
         <v>364</v>
       </c>
-      <c r="BW13" s="92"/>
-      <c r="BX13" s="92"/>
-      <c r="BY13" s="93"/>
-      <c r="BZ13" s="91" t="s">
+      <c r="BY13" s="92"/>
+      <c r="BZ13" s="92"/>
+      <c r="CA13" s="93"/>
+      <c r="CB13" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="CA13" s="92"/>
-      <c r="CB13" s="93"/>
-      <c r="CC13" s="144">
+      <c r="CC13" s="92"/>
+      <c r="CD13" s="93"/>
+      <c r="CE13" s="144">
         <v>45090</v>
       </c>
-      <c r="CD13" s="145"/>
-      <c r="CE13" s="145"/>
-      <c r="CF13" s="146"/>
-    </row>
-    <row r="14" customHeight="1" ht="84">
-      <c r="A14" s="91">
-        <v>7</v>
-      </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="244" t="s">
-        <v>414</v>
+      <c r="CF13" s="145"/>
+      <c r="CG13" s="145"/>
+      <c r="CH13" s="146"/>
+    </row>
+    <row r="14" customHeight="1" ht="99" customFormat="1" s="46">
+      <c r="A14" s="189">
+        <v>6</v>
+      </c>
+      <c r="B14" s="190"/>
+      <c r="C14" s="51" t="s">
+        <v>416</v>
       </c>
       <c r="D14" s="52"/>
       <c r="E14" s="41"/>
@@ -7432,24 +8860,24 @@
       <c r="AP14" s="96"/>
       <c r="AQ14" s="96"/>
       <c r="AR14" s="97"/>
-      <c r="AS14" s="245" t="s">
-        <v>417</v>
-      </c>
-      <c r="AT14" s="246"/>
-      <c r="AU14" s="246"/>
-      <c r="AV14" s="246"/>
-      <c r="AW14" s="246"/>
-      <c r="AX14" s="246"/>
-      <c r="AY14" s="246"/>
-      <c r="AZ14" s="246"/>
-      <c r="BA14" s="246"/>
-      <c r="BB14" s="246"/>
-      <c r="BC14" s="246"/>
-      <c r="BD14" s="246"/>
-      <c r="BE14" s="246"/>
-      <c r="BF14" s="247"/>
+      <c r="AS14" s="254" t="s">
+        <v>418</v>
+      </c>
+      <c r="AT14" s="255"/>
+      <c r="AU14" s="255"/>
+      <c r="AV14" s="255"/>
+      <c r="AW14" s="255"/>
+      <c r="AX14" s="255"/>
+      <c r="AY14" s="255"/>
+      <c r="AZ14" s="255"/>
+      <c r="BA14" s="255"/>
+      <c r="BB14" s="255"/>
+      <c r="BC14" s="255"/>
+      <c r="BD14" s="255"/>
+      <c r="BE14" s="255"/>
+      <c r="BF14" s="256"/>
       <c r="BG14" s="98" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="BH14" s="99"/>
       <c r="BI14" s="99"/>
@@ -7464,32 +8892,35 @@
       <c r="BR14" s="99"/>
       <c r="BS14" s="99"/>
       <c r="BT14" s="99"/>
-      <c r="BU14" s="100"/>
-      <c r="BV14" s="91" t="s">
+      <c r="BU14" s="99"/>
+      <c r="BV14" s="99"/>
+      <c r="BW14" s="100"/>
+      <c r="BX14" s="91" t="s">
         <v>364</v>
       </c>
-      <c r="BW14" s="92"/>
-      <c r="BX14" s="92"/>
-      <c r="BY14" s="93"/>
-      <c r="BZ14" s="91" t="s">
+      <c r="BY14" s="92"/>
+      <c r="BZ14" s="92"/>
+      <c r="CA14" s="93"/>
+      <c r="CB14" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="CA14" s="92"/>
-      <c r="CB14" s="93"/>
-      <c r="CC14" s="144">
+      <c r="CC14" s="92"/>
+      <c r="CD14" s="93"/>
+      <c r="CE14" s="144">
         <v>45090</v>
       </c>
-      <c r="CD14" s="145"/>
-      <c r="CE14" s="145"/>
-      <c r="CF14" s="146"/>
-    </row>
-    <row r="15" customHeight="1" ht="99">
-      <c r="A15" s="189">
-        <v>8</v>
-      </c>
-      <c r="B15" s="190"/>
-      <c r="C15" s="51" t="s">
-        <v>416</v>
+      <c r="CF14" s="145"/>
+      <c r="CG14" s="145"/>
+      <c r="CH14" s="146"/>
+      <c r="CY14" s="555"/>
+    </row>
+    <row r="15" customHeight="1" ht="84" customFormat="1" s="46">
+      <c r="A15" s="91">
+        <v>7</v>
+      </c>
+      <c r="B15" s="93"/>
+      <c r="C15" s="556" t="s">
+        <v>419</v>
       </c>
       <c r="D15" s="52"/>
       <c r="E15" s="41"/>
@@ -7519,9 +8950,7 @@
       <c r="Y15" s="93"/>
       <c r="Z15" s="91"/>
       <c r="AA15" s="93"/>
-      <c r="AB15" s="91" t="s">
-        <v>64</v>
-      </c>
+      <c r="AB15" s="91"/>
       <c r="AC15" s="93"/>
       <c r="AD15" s="91" t="s">
         <v>64</v>
@@ -7544,65 +8973,70 @@
       <c r="AP15" s="96"/>
       <c r="AQ15" s="96"/>
       <c r="AR15" s="97"/>
-      <c r="AS15" s="254" t="s">
-        <v>418</v>
-      </c>
-      <c r="AT15" s="255"/>
-      <c r="AU15" s="255"/>
-      <c r="AV15" s="255"/>
-      <c r="AW15" s="255"/>
-      <c r="AX15" s="255"/>
-      <c r="AY15" s="255"/>
-      <c r="AZ15" s="255"/>
-      <c r="BA15" s="255"/>
-      <c r="BB15" s="255"/>
-      <c r="BC15" s="255"/>
-      <c r="BD15" s="255"/>
-      <c r="BE15" s="255"/>
-      <c r="BF15" s="256"/>
-      <c r="BG15" s="98" t="s">
+      <c r="AS15" s="245" t="s">
+        <v>425</v>
+      </c>
+      <c r="AT15" s="246"/>
+      <c r="AU15" s="246"/>
+      <c r="AV15" s="246"/>
+      <c r="AW15" s="246"/>
+      <c r="AX15" s="246"/>
+      <c r="AY15" s="246"/>
+      <c r="AZ15" s="246"/>
+      <c r="BA15" s="246"/>
+      <c r="BB15" s="246"/>
+      <c r="BC15" s="246"/>
+      <c r="BD15" s="246"/>
+      <c r="BE15" s="246"/>
+      <c r="BF15" s="247"/>
+      <c r="BG15" s="95" t="s">
         <v>423</v>
       </c>
-      <c r="BH15" s="99"/>
-      <c r="BI15" s="99"/>
-      <c r="BJ15" s="99"/>
-      <c r="BK15" s="99"/>
-      <c r="BL15" s="99"/>
-      <c r="BM15" s="99"/>
-      <c r="BN15" s="99"/>
-      <c r="BO15" s="99"/>
-      <c r="BP15" s="99"/>
-      <c r="BQ15" s="99"/>
-      <c r="BR15" s="99"/>
-      <c r="BS15" s="99"/>
-      <c r="BT15" s="99"/>
-      <c r="BU15" s="100"/>
-      <c r="BV15" s="91" t="s">
+      <c r="BH15" s="96"/>
+      <c r="BI15" s="96"/>
+      <c r="BJ15" s="96"/>
+      <c r="BK15" s="96"/>
+      <c r="BL15" s="96"/>
+      <c r="BM15" s="96"/>
+      <c r="BN15" s="96"/>
+      <c r="BO15" s="96"/>
+      <c r="BP15" s="96"/>
+      <c r="BQ15" s="96"/>
+      <c r="BR15" s="96"/>
+      <c r="BS15" s="96"/>
+      <c r="BT15" s="96"/>
+      <c r="BU15" s="96"/>
+      <c r="BV15" s="96"/>
+      <c r="BW15" s="97"/>
+      <c r="BX15" s="91" t="s">
         <v>364</v>
       </c>
-      <c r="BW15" s="92"/>
-      <c r="BX15" s="92"/>
-      <c r="BY15" s="93"/>
-      <c r="BZ15" s="91" t="s">
+      <c r="BY15" s="92"/>
+      <c r="BZ15" s="92"/>
+      <c r="CA15" s="93"/>
+      <c r="CB15" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="CA15" s="92"/>
-      <c r="CB15" s="93"/>
-      <c r="CC15" s="144">
+      <c r="CC15" s="92"/>
+      <c r="CD15" s="93"/>
+      <c r="CE15" s="144">
         <v>45090</v>
       </c>
-      <c r="CD15" s="145"/>
-      <c r="CE15" s="145"/>
-      <c r="CF15" s="146"/>
-      <c r="CV15" s="221"/>
-    </row>
-    <row r="16" customHeight="1" ht="84">
+      <c r="CF15" s="145"/>
+      <c r="CG15" s="145"/>
+      <c r="CH15" s="146"/>
+      <c r="DC15" s="495"/>
+      <c r="DD15" s="496"/>
+      <c r="DE15" s="496"/>
+      <c r="DF15" s="497"/>
+    </row>
+    <row r="16" customHeight="1" ht="84" customFormat="1" s="46">
       <c r="A16" s="91">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="93"/>
-      <c r="C16" s="257" t="s">
-        <v>419</v>
+      <c r="C16" s="49" t="s">
+        <v>426</v>
       </c>
       <c r="D16" s="52"/>
       <c r="E16" s="41"/>
@@ -7632,7 +9066,9 @@
       <c r="Y16" s="93"/>
       <c r="Z16" s="91"/>
       <c r="AA16" s="93"/>
-      <c r="AB16" s="91"/>
+      <c r="AB16" s="91" t="s">
+        <v>64</v>
+      </c>
       <c r="AC16" s="93"/>
       <c r="AD16" s="91" t="s">
         <v>64</v>
@@ -7656,7 +9092,7 @@
       <c r="AQ16" s="96"/>
       <c r="AR16" s="97"/>
       <c r="AS16" s="245" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AT16" s="246"/>
       <c r="AU16" s="246"/>
@@ -7671,77 +9107,79 @@
       <c r="BD16" s="246"/>
       <c r="BE16" s="246"/>
       <c r="BF16" s="247"/>
-      <c r="BG16" s="95" t="s">
-        <v>423</v>
-      </c>
-      <c r="BH16" s="96"/>
-      <c r="BI16" s="96"/>
-      <c r="BJ16" s="96"/>
-      <c r="BK16" s="96"/>
-      <c r="BL16" s="96"/>
-      <c r="BM16" s="96"/>
-      <c r="BN16" s="96"/>
-      <c r="BO16" s="96"/>
-      <c r="BP16" s="96"/>
-      <c r="BQ16" s="96"/>
-      <c r="BR16" s="96"/>
-      <c r="BS16" s="96"/>
-      <c r="BT16" s="96"/>
-      <c r="BU16" s="97"/>
-      <c r="BV16" s="91" t="s">
+      <c r="BG16" s="98" t="s">
+        <v>301</v>
+      </c>
+      <c r="BH16" s="99"/>
+      <c r="BI16" s="99"/>
+      <c r="BJ16" s="99"/>
+      <c r="BK16" s="99"/>
+      <c r="BL16" s="99"/>
+      <c r="BM16" s="99"/>
+      <c r="BN16" s="99"/>
+      <c r="BO16" s="99"/>
+      <c r="BP16" s="99"/>
+      <c r="BQ16" s="99"/>
+      <c r="BR16" s="99"/>
+      <c r="BS16" s="99"/>
+      <c r="BT16" s="99"/>
+      <c r="BU16" s="99"/>
+      <c r="BV16" s="99"/>
+      <c r="BW16" s="100"/>
+      <c r="BX16" s="91" t="s">
         <v>364</v>
       </c>
-      <c r="BW16" s="92"/>
-      <c r="BX16" s="92"/>
-      <c r="BY16" s="93"/>
-      <c r="BZ16" s="91" t="s">
+      <c r="BY16" s="92"/>
+      <c r="BZ16" s="92"/>
+      <c r="CA16" s="93"/>
+      <c r="CB16" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="CA16" s="92"/>
-      <c r="CB16" s="93"/>
-      <c r="CC16" s="144">
+      <c r="CC16" s="92"/>
+      <c r="CD16" s="93"/>
+      <c r="CE16" s="144">
         <v>45090</v>
       </c>
-      <c r="CD16" s="145"/>
-      <c r="CE16" s="145"/>
-      <c r="CF16" s="146"/>
-    </row>
-    <row r="17" customHeight="1" ht="84">
-      <c r="A17" s="91">
-        <v>10</v>
-      </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="49" t="s">
-        <v>426</v>
-      </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="42"/>
+      <c r="CF16" s="145"/>
+      <c r="CG16" s="145"/>
+      <c r="CH16" s="146"/>
+    </row>
+    <row r="17" ht="69" customFormat="1" s="46">
+      <c r="A17" s="347">
+        <v>9</v>
+      </c>
+      <c r="B17" s="348"/>
+      <c r="C17" s="426" t="s">
+        <v>436</v>
+      </c>
+      <c r="D17" s="427"/>
+      <c r="E17" s="427"/>
+      <c r="F17" s="427"/>
+      <c r="G17" s="427"/>
+      <c r="H17" s="427"/>
+      <c r="I17" s="427"/>
+      <c r="J17" s="427"/>
+      <c r="K17" s="427"/>
+      <c r="L17" s="427"/>
+      <c r="M17" s="427"/>
+      <c r="N17" s="427"/>
+      <c r="O17" s="428"/>
       <c r="P17" s="91" t="s">
         <v>64</v>
       </c>
       <c r="Q17" s="93"/>
-      <c r="R17" s="91"/>
-      <c r="S17" s="93"/>
+      <c r="R17" s="347"/>
+      <c r="S17" s="348"/>
       <c r="T17" s="91" t="s">
         <v>64</v>
       </c>
       <c r="U17" s="93"/>
-      <c r="V17" s="91"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="91"/>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="91"/>
-      <c r="AA17" s="93"/>
+      <c r="V17" s="347"/>
+      <c r="W17" s="348"/>
+      <c r="X17" s="347"/>
+      <c r="Y17" s="348"/>
+      <c r="Z17" s="347"/>
+      <c r="AA17" s="348"/>
       <c r="AB17" s="91" t="s">
         <v>64</v>
       </c>
@@ -7752,14 +9190,14 @@
       <c r="AE17" s="92"/>
       <c r="AF17" s="92"/>
       <c r="AG17" s="93"/>
-      <c r="AH17" s="50"/>
-      <c r="AI17" s="41"/>
-      <c r="AJ17" s="42"/>
-      <c r="AK17" s="248" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL17" s="249"/>
-      <c r="AM17" s="250"/>
+      <c r="AH17" s="347"/>
+      <c r="AI17" s="355"/>
+      <c r="AJ17" s="356"/>
+      <c r="AK17" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL17" s="41"/>
+      <c r="AM17" s="42"/>
       <c r="AN17" s="95" t="s">
         <v>411</v>
       </c>
@@ -7767,59 +9205,403 @@
       <c r="AP17" s="96"/>
       <c r="AQ17" s="96"/>
       <c r="AR17" s="97"/>
-      <c r="AS17" s="245" t="s">
-        <v>429</v>
-      </c>
-      <c r="AT17" s="246"/>
-      <c r="AU17" s="246"/>
-      <c r="AV17" s="246"/>
-      <c r="AW17" s="246"/>
-      <c r="AX17" s="246"/>
-      <c r="AY17" s="246"/>
-      <c r="AZ17" s="246"/>
-      <c r="BA17" s="246"/>
-      <c r="BB17" s="246"/>
-      <c r="BC17" s="246"/>
-      <c r="BD17" s="246"/>
-      <c r="BE17" s="246"/>
-      <c r="BF17" s="247"/>
-      <c r="BG17" s="98" t="s">
-        <v>301</v>
-      </c>
-      <c r="BH17" s="99"/>
-      <c r="BI17" s="99"/>
-      <c r="BJ17" s="99"/>
-      <c r="BK17" s="99"/>
-      <c r="BL17" s="99"/>
-      <c r="BM17" s="99"/>
-      <c r="BN17" s="99"/>
-      <c r="BO17" s="99"/>
-      <c r="BP17" s="99"/>
-      <c r="BQ17" s="99"/>
-      <c r="BR17" s="99"/>
-      <c r="BS17" s="99"/>
-      <c r="BT17" s="99"/>
-      <c r="BU17" s="100"/>
-      <c r="BV17" s="91" t="s">
+      <c r="AS17" s="455" t="s">
+        <v>439</v>
+      </c>
+      <c r="AT17" s="456"/>
+      <c r="AU17" s="456"/>
+      <c r="AV17" s="456"/>
+      <c r="AW17" s="456"/>
+      <c r="AX17" s="456"/>
+      <c r="AY17" s="456"/>
+      <c r="AZ17" s="456"/>
+      <c r="BA17" s="456"/>
+      <c r="BB17" s="456"/>
+      <c r="BC17" s="456"/>
+      <c r="BD17" s="456"/>
+      <c r="BE17" s="456"/>
+      <c r="BF17" s="457"/>
+      <c r="BG17" s="557" t="s">
+        <v>441</v>
+      </c>
+      <c r="BH17" s="156"/>
+      <c r="BI17" s="156"/>
+      <c r="BJ17" s="156"/>
+      <c r="BK17" s="156"/>
+      <c r="BL17" s="156"/>
+      <c r="BM17" s="156"/>
+      <c r="BN17" s="156"/>
+      <c r="BO17" s="156"/>
+      <c r="BP17" s="156"/>
+      <c r="BQ17" s="156"/>
+      <c r="BR17" s="156"/>
+      <c r="BS17" s="156"/>
+      <c r="BT17" s="156"/>
+      <c r="BU17" s="568"/>
+      <c r="BV17" s="568"/>
+      <c r="BW17" s="156"/>
+      <c r="BX17" s="91" t="s">
         <v>364</v>
       </c>
-      <c r="BW17" s="92"/>
-      <c r="BX17" s="92"/>
-      <c r="BY17" s="93"/>
-      <c r="BZ17" s="91" t="s">
+      <c r="BY17" s="92"/>
+      <c r="BZ17" s="92"/>
+      <c r="CA17" s="93"/>
+      <c r="CB17" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="CA17" s="92"/>
-      <c r="CB17" s="93"/>
-      <c r="CC17" s="144">
+      <c r="CC17" s="92"/>
+      <c r="CD17" s="93"/>
+      <c r="CE17" s="144">
         <v>45090</v>
       </c>
-      <c r="CD17" s="145"/>
-      <c r="CE17" s="145"/>
-      <c r="CF17" s="146"/>
+      <c r="CF17" s="145"/>
+      <c r="CG17" s="145"/>
+      <c r="CH17" s="146"/>
+    </row>
+    <row r="18" ht="69" customFormat="1" s="46">
+      <c r="A18" s="347">
+        <v>10</v>
+      </c>
+      <c r="B18" s="424"/>
+      <c r="C18" s="558" t="s">
+        <v>442</v>
+      </c>
+      <c r="D18" s="430"/>
+      <c r="E18" s="430"/>
+      <c r="F18" s="430"/>
+      <c r="G18" s="430"/>
+      <c r="H18" s="430"/>
+      <c r="I18" s="430"/>
+      <c r="J18" s="430"/>
+      <c r="K18" s="430"/>
+      <c r="L18" s="430"/>
+      <c r="M18" s="430"/>
+      <c r="N18" s="430"/>
+      <c r="O18" s="431"/>
+      <c r="P18" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="347"/>
+      <c r="S18" s="348"/>
+      <c r="T18" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="U18" s="93"/>
+      <c r="V18" s="347"/>
+      <c r="W18" s="348"/>
+      <c r="X18" s="347"/>
+      <c r="Y18" s="348"/>
+      <c r="Z18" s="347"/>
+      <c r="AA18" s="348"/>
+      <c r="AB18" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC18" s="93"/>
+      <c r="AD18" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE18" s="92"/>
+      <c r="AF18" s="92"/>
+      <c r="AG18" s="93"/>
+      <c r="AH18" s="347"/>
+      <c r="AI18" s="355"/>
+      <c r="AJ18" s="356"/>
+      <c r="AK18" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL18" s="41"/>
+      <c r="AM18" s="42"/>
+      <c r="AN18" s="95" t="s">
+        <v>411</v>
+      </c>
+      <c r="AO18" s="96"/>
+      <c r="AP18" s="96"/>
+      <c r="AQ18" s="96"/>
+      <c r="AR18" s="453"/>
+      <c r="AS18" s="511" t="s">
+        <v>444</v>
+      </c>
+      <c r="AT18" s="512"/>
+      <c r="AU18" s="512"/>
+      <c r="AV18" s="512"/>
+      <c r="AW18" s="512"/>
+      <c r="AX18" s="512"/>
+      <c r="AY18" s="512"/>
+      <c r="AZ18" s="512"/>
+      <c r="BA18" s="512"/>
+      <c r="BB18" s="512"/>
+      <c r="BC18" s="512"/>
+      <c r="BD18" s="512"/>
+      <c r="BE18" s="512"/>
+      <c r="BF18" s="513"/>
+      <c r="BG18" s="461" t="s">
+        <v>446</v>
+      </c>
+      <c r="BH18" s="387"/>
+      <c r="BI18" s="387"/>
+      <c r="BJ18" s="387"/>
+      <c r="BK18" s="387"/>
+      <c r="BL18" s="387"/>
+      <c r="BM18" s="387"/>
+      <c r="BN18" s="387"/>
+      <c r="BO18" s="387"/>
+      <c r="BP18" s="387"/>
+      <c r="BQ18" s="387"/>
+      <c r="BR18" s="387"/>
+      <c r="BS18" s="387"/>
+      <c r="BT18" s="387"/>
+      <c r="BU18" s="387"/>
+      <c r="BV18" s="387"/>
+      <c r="BW18" s="388"/>
+      <c r="BX18" s="91" t="s">
+        <v>364</v>
+      </c>
+      <c r="BY18" s="92"/>
+      <c r="BZ18" s="92"/>
+      <c r="CA18" s="93"/>
+      <c r="CB18" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="CC18" s="92"/>
+      <c r="CD18" s="93"/>
+      <c r="CE18" s="144">
+        <v>45090</v>
+      </c>
+      <c r="CF18" s="145"/>
+      <c r="CG18" s="145"/>
+      <c r="CH18" s="146"/>
+    </row>
+    <row r="19" customHeight="1" ht="90" customFormat="1" s="46">
+      <c r="A19" s="347">
+        <v>11</v>
+      </c>
+      <c r="B19" s="351"/>
+      <c r="C19" s="559" t="s">
+        <v>450</v>
+      </c>
+      <c r="D19" s="558"/>
+      <c r="E19" s="558"/>
+      <c r="F19" s="558"/>
+      <c r="G19" s="558"/>
+      <c r="H19" s="558"/>
+      <c r="I19" s="558"/>
+      <c r="J19" s="558"/>
+      <c r="K19" s="558"/>
+      <c r="L19" s="558"/>
+      <c r="M19" s="558"/>
+      <c r="N19" s="558"/>
+      <c r="O19" s="560"/>
+      <c r="P19" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="347"/>
+      <c r="S19" s="465"/>
+      <c r="T19" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="U19" s="93"/>
+      <c r="V19" s="347"/>
+      <c r="W19" s="465"/>
+      <c r="X19" s="347"/>
+      <c r="Y19" s="465"/>
+      <c r="Z19" s="347"/>
+      <c r="AA19" s="465"/>
+      <c r="AB19" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC19" s="93"/>
+      <c r="AD19" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE19" s="92"/>
+      <c r="AF19" s="92"/>
+      <c r="AG19" s="93"/>
+      <c r="AH19" s="347"/>
+      <c r="AI19" s="347"/>
+      <c r="AJ19" s="465"/>
+      <c r="AK19" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL19" s="41"/>
+      <c r="AM19" s="42"/>
+      <c r="AN19" s="483" t="s">
+        <v>456</v>
+      </c>
+      <c r="AO19" s="456"/>
+      <c r="AP19" s="456"/>
+      <c r="AQ19" s="456"/>
+      <c r="AR19" s="456"/>
+      <c r="AS19" s="561" t="s">
+        <v>454</v>
+      </c>
+      <c r="AT19" s="561"/>
+      <c r="AU19" s="561"/>
+      <c r="AV19" s="561"/>
+      <c r="AW19" s="561"/>
+      <c r="AX19" s="561"/>
+      <c r="AY19" s="561"/>
+      <c r="AZ19" s="561"/>
+      <c r="BA19" s="561"/>
+      <c r="BB19" s="561"/>
+      <c r="BC19" s="561"/>
+      <c r="BD19" s="561"/>
+      <c r="BE19" s="561"/>
+      <c r="BF19" s="562"/>
+      <c r="BG19" s="563" t="s">
+        <v>458</v>
+      </c>
+      <c r="BH19" s="503"/>
+      <c r="BI19" s="503"/>
+      <c r="BJ19" s="503"/>
+      <c r="BK19" s="503"/>
+      <c r="BL19" s="503"/>
+      <c r="BM19" s="503"/>
+      <c r="BN19" s="503"/>
+      <c r="BO19" s="503"/>
+      <c r="BP19" s="503"/>
+      <c r="BQ19" s="503"/>
+      <c r="BR19" s="503"/>
+      <c r="BS19" s="503"/>
+      <c r="BT19" s="503"/>
+      <c r="BU19" s="569"/>
+      <c r="BV19" s="569"/>
+      <c r="BW19" s="503"/>
+      <c r="BX19" s="91" t="s">
+        <v>364</v>
+      </c>
+      <c r="BY19" s="92"/>
+      <c r="BZ19" s="92"/>
+      <c r="CA19" s="93"/>
+      <c r="CB19" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="CC19" s="92"/>
+      <c r="CD19" s="93"/>
+      <c r="CE19" s="144">
+        <v>45090</v>
+      </c>
+      <c r="CF19" s="145"/>
+      <c r="CG19" s="145"/>
+      <c r="CH19" s="146"/>
+    </row>
+    <row r="20" customHeight="1" ht="82" customFormat="1" s="46">
+      <c r="A20" s="347">
+        <v>12</v>
+      </c>
+      <c r="B20" s="351"/>
+      <c r="C20" s="559" t="s">
+        <v>451</v>
+      </c>
+      <c r="D20" s="558"/>
+      <c r="E20" s="558"/>
+      <c r="F20" s="558"/>
+      <c r="G20" s="558"/>
+      <c r="H20" s="558"/>
+      <c r="I20" s="558"/>
+      <c r="J20" s="558"/>
+      <c r="K20" s="558"/>
+      <c r="L20" s="558"/>
+      <c r="M20" s="558"/>
+      <c r="N20" s="558"/>
+      <c r="O20" s="560"/>
+      <c r="P20" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="347"/>
+      <c r="S20" s="465"/>
+      <c r="T20" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="U20" s="93"/>
+      <c r="V20" s="347"/>
+      <c r="W20" s="465"/>
+      <c r="X20" s="347"/>
+      <c r="Y20" s="465"/>
+      <c r="Z20" s="347"/>
+      <c r="AA20" s="472"/>
+      <c r="AB20" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC20" s="93"/>
+      <c r="AD20" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE20" s="92"/>
+      <c r="AF20" s="92"/>
+      <c r="AG20" s="93"/>
+      <c r="AH20" s="347"/>
+      <c r="AI20" s="347"/>
+      <c r="AJ20" s="472"/>
+      <c r="AK20" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL20" s="41"/>
+      <c r="AM20" s="42"/>
+      <c r="AN20" s="500" t="s">
+        <v>457</v>
+      </c>
+      <c r="AO20" s="484"/>
+      <c r="AP20" s="484"/>
+      <c r="AQ20" s="484"/>
+      <c r="AR20" s="484"/>
+      <c r="AS20" s="564" t="s">
+        <v>454</v>
+      </c>
+      <c r="AT20" s="512"/>
+      <c r="AU20" s="512"/>
+      <c r="AV20" s="512"/>
+      <c r="AW20" s="512"/>
+      <c r="AX20" s="512"/>
+      <c r="AY20" s="512"/>
+      <c r="AZ20" s="512"/>
+      <c r="BA20" s="512"/>
+      <c r="BB20" s="512"/>
+      <c r="BC20" s="512"/>
+      <c r="BD20" s="512"/>
+      <c r="BE20" s="512"/>
+      <c r="BF20" s="565"/>
+      <c r="BG20" s="566" t="s">
+        <v>459</v>
+      </c>
+      <c r="BH20" s="267"/>
+      <c r="BI20" s="267"/>
+      <c r="BJ20" s="267"/>
+      <c r="BK20" s="267"/>
+      <c r="BL20" s="267"/>
+      <c r="BM20" s="267"/>
+      <c r="BN20" s="267"/>
+      <c r="BO20" s="267"/>
+      <c r="BP20" s="267"/>
+      <c r="BQ20" s="267"/>
+      <c r="BR20" s="267"/>
+      <c r="BS20" s="267"/>
+      <c r="BT20" s="267"/>
+      <c r="BU20" s="570"/>
+      <c r="BV20" s="570"/>
+      <c r="BW20" s="268"/>
+      <c r="BX20" s="473" t="s">
+        <v>364</v>
+      </c>
+      <c r="BY20" s="92"/>
+      <c r="BZ20" s="92"/>
+      <c r="CA20" s="93"/>
+      <c r="CB20" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="CC20" s="92"/>
+      <c r="CD20" s="93"/>
+      <c r="CE20" s="144">
+        <v>45090</v>
+      </c>
+      <c r="CF20" s="145"/>
+      <c r="CG20" s="145"/>
+      <c r="CH20" s="146"/>
     </row>
   </sheetData>
-  <mergeCells count="185">
+  <mergeCells count="237">
     <mergeCell ref="A2:AD3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="K4:R4"/>
@@ -7849,10 +9631,10 @@
     <mergeCell ref="AK7:AM8"/>
     <mergeCell ref="AN7:AR8"/>
     <mergeCell ref="AS7:BF8"/>
-    <mergeCell ref="BG7:BU8"/>
-    <mergeCell ref="BV7:BY8"/>
-    <mergeCell ref="BZ7:CB8"/>
-    <mergeCell ref="CC7:CF8"/>
+    <mergeCell ref="BG7:BW8"/>
+    <mergeCell ref="BX7:CA8"/>
+    <mergeCell ref="CB7:CD8"/>
+    <mergeCell ref="CE7:CH8"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="T8:U8"/>
@@ -7872,10 +9654,10 @@
     <mergeCell ref="AD9:AG9"/>
     <mergeCell ref="AN9:AR9"/>
     <mergeCell ref="AS9:BF9"/>
-    <mergeCell ref="BG9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CB9"/>
-    <mergeCell ref="CC9:CF9"/>
+    <mergeCell ref="BG9:BW9"/>
+    <mergeCell ref="BX9:CA9"/>
+    <mergeCell ref="CB9:CD9"/>
+    <mergeCell ref="CE9:CH9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="R10:S10"/>
@@ -7887,11 +9669,11 @@
     <mergeCell ref="AD10:AG10"/>
     <mergeCell ref="AN10:AR10"/>
     <mergeCell ref="AS10:BF10"/>
-    <mergeCell ref="BG10:BU10"/>
-    <mergeCell ref="BV10:BY10"/>
-    <mergeCell ref="BZ10:CB10"/>
-    <mergeCell ref="CC10:CF10"/>
-    <mergeCell ref="CU10:CX10"/>
+    <mergeCell ref="BG10:BW10"/>
+    <mergeCell ref="BX10:CA10"/>
+    <mergeCell ref="CB10:CD10"/>
+    <mergeCell ref="CE10:CH10"/>
+    <mergeCell ref="CX10:DA10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="R11:S11"/>
@@ -7904,10 +9686,10 @@
     <mergeCell ref="AK11:AM11"/>
     <mergeCell ref="AN11:AR11"/>
     <mergeCell ref="AS11:BF11"/>
-    <mergeCell ref="BG11:BU11"/>
-    <mergeCell ref="BV11:BY11"/>
-    <mergeCell ref="BZ11:CB11"/>
-    <mergeCell ref="CC11:CF11"/>
+    <mergeCell ref="BG11:BW11"/>
+    <mergeCell ref="BX11:CA11"/>
+    <mergeCell ref="CB11:CD11"/>
+    <mergeCell ref="CE11:CH11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="R12:S12"/>
@@ -7917,14 +9699,13 @@
     <mergeCell ref="Z12:AA12"/>
     <mergeCell ref="AB12:AC12"/>
     <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AK12:AM12"/>
+    <mergeCell ref="AH12:AJ12"/>
     <mergeCell ref="AN12:AR12"/>
     <mergeCell ref="AS12:BF12"/>
-    <mergeCell ref="BG12:BU12"/>
-    <mergeCell ref="BV12:BY12"/>
-    <mergeCell ref="BZ12:CB12"/>
-    <mergeCell ref="CC12:CF12"/>
-    <mergeCell ref="CW12:CZ12"/>
+    <mergeCell ref="BG12:BW12"/>
+    <mergeCell ref="BX12:CA12"/>
+    <mergeCell ref="CB12:CD12"/>
+    <mergeCell ref="CE12:CH12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="R13:S13"/>
@@ -7934,13 +9715,13 @@
     <mergeCell ref="Z13:AA13"/>
     <mergeCell ref="AB13:AC13"/>
     <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AM13"/>
     <mergeCell ref="AN13:AR13"/>
     <mergeCell ref="AS13:BF13"/>
-    <mergeCell ref="BG13:BU13"/>
-    <mergeCell ref="BV13:BY13"/>
-    <mergeCell ref="BZ13:CB13"/>
-    <mergeCell ref="CC13:CF13"/>
+    <mergeCell ref="BG13:BW13"/>
+    <mergeCell ref="BX13:CA13"/>
+    <mergeCell ref="CB13:CD13"/>
+    <mergeCell ref="CE13:CH13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="R14:S14"/>
@@ -7953,10 +9734,10 @@
     <mergeCell ref="AK14:AM14"/>
     <mergeCell ref="AN14:AR14"/>
     <mergeCell ref="AS14:BF14"/>
-    <mergeCell ref="BG14:BU14"/>
-    <mergeCell ref="BV14:BY14"/>
-    <mergeCell ref="BZ14:CB14"/>
-    <mergeCell ref="CC14:CF14"/>
+    <mergeCell ref="BG14:BW14"/>
+    <mergeCell ref="BX14:CA14"/>
+    <mergeCell ref="CB14:CD14"/>
+    <mergeCell ref="CE14:CH14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="R15:S15"/>
@@ -7969,10 +9750,11 @@
     <mergeCell ref="AK15:AM15"/>
     <mergeCell ref="AN15:AR15"/>
     <mergeCell ref="AS15:BF15"/>
-    <mergeCell ref="BG15:BU15"/>
-    <mergeCell ref="BV15:BY15"/>
-    <mergeCell ref="BZ15:CB15"/>
-    <mergeCell ref="CC15:CF15"/>
+    <mergeCell ref="BG15:BW15"/>
+    <mergeCell ref="BX15:CA15"/>
+    <mergeCell ref="CB15:CD15"/>
+    <mergeCell ref="CE15:CH15"/>
+    <mergeCell ref="DC15:DF15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="R16:S16"/>
@@ -7985,11 +9767,12 @@
     <mergeCell ref="AK16:AM16"/>
     <mergeCell ref="AN16:AR16"/>
     <mergeCell ref="AS16:BF16"/>
-    <mergeCell ref="BG16:BU16"/>
-    <mergeCell ref="BV16:BY16"/>
-    <mergeCell ref="BZ16:CB16"/>
-    <mergeCell ref="CC16:CF16"/>
+    <mergeCell ref="BG16:BW16"/>
+    <mergeCell ref="BX16:CA16"/>
+    <mergeCell ref="CB16:CD16"/>
+    <mergeCell ref="CE16:CH16"/>
     <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:O17"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="T17:U17"/>
@@ -7998,13 +9781,64 @@
     <mergeCell ref="Z17:AA17"/>
     <mergeCell ref="AB17:AC17"/>
     <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
     <mergeCell ref="AK17:AM17"/>
     <mergeCell ref="AN17:AR17"/>
     <mergeCell ref="AS17:BF17"/>
-    <mergeCell ref="BG17:BU17"/>
-    <mergeCell ref="BV17:BY17"/>
-    <mergeCell ref="BZ17:CB17"/>
-    <mergeCell ref="CC17:CF17"/>
+    <mergeCell ref="BX17:CA17"/>
+    <mergeCell ref="CB17:CD17"/>
+    <mergeCell ref="CE17:CH17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:BF18"/>
+    <mergeCell ref="BG18:BW18"/>
+    <mergeCell ref="BX18:CA18"/>
+    <mergeCell ref="CB18:CD18"/>
+    <mergeCell ref="CE18:CH18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AK19:AM19"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:BF19"/>
+    <mergeCell ref="BX19:CA19"/>
+    <mergeCell ref="CB19:CD19"/>
+    <mergeCell ref="CE19:CH19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="BX20:CA20"/>
+    <mergeCell ref="CB20:CD20"/>
+    <mergeCell ref="CE20:CH20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8017,7 +9851,7 @@
   <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="V15" sqref="V15" activeCellId="0"/>
+      <selection activeCell="K29" sqref="K29" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.3" outlineLevelRow="0" defaultColWidth="8.796875" outlineLevelCol="0"/>
@@ -8025,17 +9859,19 @@
     <col min="1" max="1" width="14" style="304" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="304" customWidth="1"/>
     <col min="3" max="3" width="15.59765625" style="304" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="304" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="304" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="304" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="304" customWidth="1"/>
+    <col min="5" max="5" width="37" style="304" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="304" customWidth="1"/>
     <col min="7" max="7" width="8.796875" style="304"/>
     <col min="8" max="8" width="11.28515625" style="304" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" style="304" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="304" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="304" customWidth="1"/>
-    <col min="12" max="15" width="8.796875" style="304"/>
-    <col min="16" max="16" width="23.69921875" style="304" customWidth="1"/>
-    <col min="17" max="16384" width="8.796875" style="304"/>
+    <col min="11" max="11" width="21.28515625" style="304" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="304" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="304" customWidth="1"/>
+    <col min="14" max="16" width="8.796875" style="304"/>
+    <col min="17" max="17" width="23.69921875" style="304" customWidth="1"/>
+    <col min="18" max="16384" width="8.796875" style="304"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="30" customFormat="1" s="304">
@@ -8045,169 +9881,147 @@
     </row>
     <row r="2" customFormat="1" s="304"/>
     <row r="4" customFormat="1" s="304">
-      <c r="B4" s="321" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="322" t="s">
-        <v>193</v>
-      </c>
-      <c r="D4" s="322" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" s="322" t="s">
-        <v>195</v>
-      </c>
-      <c r="F4" s="322" t="s">
-        <v>196</v>
-      </c>
-      <c r="G4" s="322" t="s">
+      <c r="B4" s="576"/>
+      <c r="C4" s="577"/>
+      <c r="D4" s="577"/>
+      <c r="E4" s="577"/>
+      <c r="F4" s="577"/>
+      <c r="G4" s="577"/>
+      <c r="H4" s="577"/>
+      <c r="I4" s="577"/>
+      <c r="J4" s="577"/>
+      <c r="K4" s="577"/>
+      <c r="L4" s="577"/>
+      <c r="M4" s="577"/>
+      <c r="N4" s="571"/>
+      <c r="O4" s="309"/>
+    </row>
+    <row r="5" customFormat="1" s="304">
+      <c r="B5" s="575"/>
+      <c r="C5" s="578"/>
+      <c r="D5" s="575"/>
+      <c r="E5" s="575"/>
+      <c r="F5" s="575"/>
+      <c r="G5" s="575"/>
+      <c r="H5" s="575"/>
+      <c r="I5" s="575"/>
+      <c r="J5" s="575"/>
+      <c r="K5" s="575"/>
+      <c r="L5" s="575"/>
+      <c r="M5" s="575"/>
+      <c r="N5" s="571"/>
+      <c r="O5" s="309"/>
+    </row>
+    <row r="6" customFormat="1" s="304">
+      <c r="B6" s="575"/>
+      <c r="C6" s="575"/>
+      <c r="D6" s="575"/>
+      <c r="E6" s="575"/>
+      <c r="F6" s="575"/>
+      <c r="G6" s="575"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="575"/>
+      <c r="J6" s="575"/>
+      <c r="K6" s="575"/>
+      <c r="L6" s="575"/>
+      <c r="M6" s="575"/>
+      <c r="N6" s="571"/>
+      <c r="O6" s="309"/>
+    </row>
+    <row r="7" customFormat="1" s="304">
+      <c r="B7" s="575"/>
+      <c r="C7" s="575"/>
+      <c r="D7" s="575"/>
+      <c r="E7" s="575"/>
+      <c r="F7" s="575"/>
+      <c r="G7" s="575"/>
+      <c r="H7" s="575"/>
+      <c r="I7" s="575"/>
+      <c r="J7" s="575"/>
+      <c r="K7" s="575"/>
+      <c r="L7" s="575"/>
+      <c r="M7" s="575"/>
+      <c r="N7" s="571"/>
+      <c r="O7" s="313"/>
+    </row>
+    <row r="8" customFormat="1" s="304">
+      <c r="B8" s="572" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="579"/>
+      <c r="D8" s="579"/>
+      <c r="E8" s="579"/>
+      <c r="F8" s="579"/>
+      <c r="G8" s="579"/>
+      <c r="H8" s="579"/>
+      <c r="I8" s="579"/>
+      <c r="J8" s="579"/>
+      <c r="K8" s="579"/>
+      <c r="L8" s="579"/>
+      <c r="M8" s="579"/>
+      <c r="N8" s="580"/>
+      <c r="O8" s="317"/>
+    </row>
+    <row r="9" customFormat="1" s="304">
+      <c r="C9" s="583" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="583" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="583" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="583" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="322" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="322" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" s="323" t="s">
-        <v>197</v>
-      </c>
-      <c r="K4" s="323" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" s="322" t="s">
-        <v>146</v>
-      </c>
-      <c r="M4" s="308"/>
-      <c r="N4" s="309"/>
-    </row>
-    <row r="5" customFormat="1" s="304">
-      <c r="B5" s="306">
-        <v>2000</v>
-      </c>
-      <c r="C5" s="306">
-        <v>300</v>
-      </c>
-      <c r="D5" s="306">
-        <v>200</v>
-      </c>
-      <c r="E5" s="306">
-        <v>650</v>
-      </c>
-      <c r="F5" s="306">
-        <v>200</v>
-      </c>
-      <c r="G5" s="306">
+      <c r="G9" s="583" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="583" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="583" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="583" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" s="583" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" s="583" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" s="583" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9" s="583" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="581" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="581"/>
+      <c r="E10" s="581" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="581"/>
+      <c r="G10" s="581"/>
+      <c r="H10" s="581">
         <v>0</v>
       </c>
-      <c r="H5" s="306" t="s">
-        <v>430</v>
-      </c>
-      <c r="I5" s="306" t="s">
-        <v>431</v>
-      </c>
-      <c r="J5" s="307">
-        <v>500</v>
-      </c>
-      <c r="K5" s="307">
-        <v>111</v>
-      </c>
-      <c r="L5" s="306">
-        <v>1994</v>
-      </c>
-      <c r="M5" s="308"/>
-      <c r="N5" s="309"/>
-    </row>
-    <row r="6" customFormat="1" s="304">
-      <c r="B6" s="310">
-        <v>44</v>
-      </c>
-      <c r="C6" s="310">
-        <v>300</v>
-      </c>
-      <c r="D6" s="310">
-        <v>200</v>
-      </c>
-      <c r="E6" s="310">
-        <v>1</v>
-      </c>
-      <c r="F6" s="310">
-        <v>200</v>
-      </c>
-      <c r="G6" s="310">
-        <v>0</v>
-      </c>
-      <c r="H6" s="310" t="s">
-        <v>430</v>
-      </c>
-      <c r="I6" s="310">
-        <v>20230516</v>
-      </c>
-      <c r="J6" s="311">
-        <v>600</v>
-      </c>
-      <c r="K6" s="311">
-        <v>111</v>
-      </c>
-      <c r="L6" s="310">
-        <v>2005</v>
-      </c>
-      <c r="M6" s="308"/>
-      <c r="N6" s="309"/>
-    </row>
-    <row r="7" customFormat="1" s="304">
-      <c r="B7" s="306">
-        <v>1000</v>
-      </c>
-      <c r="C7" s="306">
-        <v>8</v>
-      </c>
-      <c r="D7" s="306">
-        <v>8</v>
-      </c>
-      <c r="E7" s="306">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="306">
-        <v>1000</v>
-      </c>
-      <c r="G7" s="306">
-        <v>0</v>
-      </c>
-      <c r="H7" s="306">
-        <v>20230516</v>
-      </c>
-      <c r="I7" s="306">
-        <v>20230516</v>
-      </c>
-      <c r="J7" s="307">
-        <v>601</v>
-      </c>
-      <c r="K7" s="307">
-        <v>111</v>
-      </c>
-      <c r="L7" s="306">
-        <v>203</v>
-      </c>
-      <c r="M7" s="312"/>
-      <c r="N7" s="313"/>
-    </row>
-    <row r="8" customFormat="1" s="304">
-      <c r="B8" s="314"/>
-      <c r="C8" s="314"/>
-      <c r="D8" s="314"/>
-      <c r="E8" s="314"/>
-      <c r="F8" s="314"/>
-      <c r="G8" s="314"/>
-      <c r="H8" s="314"/>
-      <c r="I8" s="314"/>
-      <c r="J8" s="314"/>
-      <c r="K8" s="315"/>
-      <c r="L8" s="314"/>
-      <c r="M8" s="316"/>
-      <c r="N8" s="317"/>
-    </row>
-    <row r="9" customFormat="1" s="304"/>
+      <c r="I10" s="581"/>
+      <c r="J10" s="581"/>
+      <c r="K10" s="582" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="581"/>
+      <c r="M10" s="581"/>
+      <c r="N10" s="581"/>
+    </row>
     <row r="17" customFormat="1" s="304"/>
     <row r="56" customFormat="1" s="304"/>
     <row r="96" customFormat="1" s="304"/>
@@ -8217,6 +10031,9 @@
     <row r="122" customFormat="1" s="304"/>
   </sheetData>
   <phoneticPr fontId="26" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K10" display="e003@it-softtech.com" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/DOC/単体テスト/EMSM_単体テスト仕様書-基本給情報更新.xlsx
+++ b/DOC/単体テスト/EMSM_単体テスト仕様書-基本給情報更新.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B520CC3-5371-4EAF-9120-95DD70057AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="377" yWindow="377" windowWidth="18199" windowHeight="10534" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="2"/>
+    <workbookView xWindow="377" yWindow="377" windowWidth="18199" windowHeight="10534" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -2622,6 +2622,221 @@
   <si>
     <t>社員３</t>
   </si>
+  <si>
+    <t>①基本給入力
+あるいは
+②稼働時間To入力</t>
+  </si>
+  <si>
+    <t>①基本給入力
+あるいは
+②稼働時間From入力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+②稼働時間From未入力
+③稼働期間From数字ではないの時
+④他の項目には、正しい入力。
+⑤「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+②稼働時間To未入力
+③稼働時間Toは数字ではないの時
+④他の項目には、正しい入力。
+⑤「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t>残業単価値が正しく表示される
+計算式　</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+②基本給未入力
+③基本給は数字ではないの時
+④他の項目には、正しい入力。
+⑤「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+①基本給未入力②
+基本給は数字ではないの時
+④他の項目には、正しい入力。
+⑤「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+①基本給未入力
+②
+基本給は数字ではないの時
+④他の項目には、正しい入力。
+⑤「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+①基本給未入力
+②基本給は数字ではないの時
+他の項目には、正しい入力。
+⑤「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+①基本給未入力
+②基本給は数字ではないの時
+③他の項目には、正しい入力。
+⑤「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+①基本給未入力
+②基本給は数字ではないの時
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①対象年度未入力
+②対象年度は対象年ではないの時
+④他の項目には、正しい入力。
+⑤「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①対象年度未入力
+②対象年度は対象年ではないの時
+③他の項目には、正しい入力。
+⑤「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①対象年度未入力
+②対象年度は対象年ではないの時
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+①稼働時間From未入力
+③稼働期間From数字ではないの時
+④他の項目には、正しい入力。
+⑤「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+①稼働時間From未入力
+②稼働期間From数字ではないの時
+④他の項目には、正しい入力。
+⑤「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+①稼働時間From未入力
+②稼働期間From数字ではないの時
+③他の項目には、正しい入力。
+⑤「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+②稼働時間To未入力
+③稼働時間Toは数字ではないの時
+④他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+①稼働時間From未入力
+②稼働期間From数字ではないの時
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+①稼働時間To未入力
+③稼働時間Toは数字ではないの時
+④他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+①稼働時間To未入力
+②稼働時間Toは数字ではないの時
+④他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+①稼働時間To未入力
+②稼働時間Toは数字ではないの時
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t>残業単価値が正しく表示される
+残業単価＝基本給／稼働時間To</t>
+  </si>
+  <si>
+    <t>残業単価値が表示される
+計算処理：
+残業単価＝基本給／稼働時間To</t>
+  </si>
+  <si>
+    <t>控除単価値が表示される
+控除単価 = 基本給 / 稼働時間From</t>
+  </si>
+  <si>
+    <t>控除単価値が表示される
+計算処理：
+控除単価 = 基本給 / 稼働時間From</t>
+  </si>
+  <si>
+    <t>①社員セレクトボックをクリック</t>
+  </si>
+  <si>
+    <t>①全ての社員ID表示される。</t>
+  </si>
+  <si>
+    <t>①社員IDを選択
+②検索ボダンをクリック</t>
+  </si>
+  <si>
+    <t>①基本給情報リスト表示される。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+①対象年度未入力
+②対象年度は対象年ではないの時
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t>①”対象年度を入力してください”
+②"対象年度のみを入力してください。""エラーメッセージが画面に表示する。</t>
+  </si>
+  <si>
+    <t>①”対象年度を入力してください”
+②"対象年度のみを入力してください。"エラーメッセージが画面に表示する。</t>
+  </si>
+  <si>
+    <t>①[テストデータ」のNo.1でログイン
+②基本給情報リスト画面へ遷移</t>
+  </si>
 </sst>
 </file>
 
@@ -2630,7 +2845,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="102">
+  <fonts count="110">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3264,8 +3479,51 @@
       <u val="single"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Klee One SemiBold"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Klee one"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Klee One SemiBold"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Klee One"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Klee one"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3318,8 +3576,13 @@
         <fgColor rgb="FF548ED5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DB3E3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="108">
+  <borders count="118">
     <border>
       <left/>
       <right/>
@@ -4773,6 +5036,113 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4789,7 +5159,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="584">
+  <cellXfs count="607">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6396,6 +6766,71 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="99" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="99" applyFont="1" fillId="10" applyFill="1" borderId="14" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="108" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="108" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="109" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="109" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="110" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="111" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="112" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="113" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="114" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="115" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="116" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="117" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="115" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="116" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="117" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="115" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="108" applyFont="1" fillId="6" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="108" applyFont="1" fillId="6" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="108" applyFont="1" fillId="6" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="109" applyFont="1" fillId="7" applyFill="1" borderId="14" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="109" applyFont="1" fillId="11" applyFill="1" borderId="14" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规 2" xfId="3" xr:uid="{14029D53-A3FE-4779-8312-6FCC10D87771}"/>
@@ -6891,7 +7326,7 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D10" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="AH36" sqref="AH36" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.19921875" defaultRowHeight="12.2" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7417,7 +7852,7 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18" activeCellId="0"/>
+      <selection activeCell="B39" sqref="B39" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7463,7 +7898,7 @@
         <v>45077</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>61</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" ht="18">
@@ -7549,9 +7984,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:CF52"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A5" zoomScale="89" zoomScaleNormal="89" workbookViewId="0" tabSelected="1">
-      <pane ySplit="4" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CX19" sqref="CX19" activeCellId="0"/>
+    <sheetView showGridLines="false" topLeftCell="G5" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="DC15" sqref="DC15:DF15" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7929,7 +8364,7 @@
       <c r="BP4" s="132"/>
       <c r="BQ4" s="538"/>
     </row>
-    <row r="5" customHeight="1" ht="19" customFormat="1" s="514">
+    <row r="5" customHeight="1" ht="18" customFormat="1" s="514">
       <c r="A5" s="539" t="s">
         <v>41</v>
       </c>
@@ -8307,7 +8742,7 @@
       <c r="AQ9" s="96"/>
       <c r="AR9" s="97"/>
       <c r="AS9" s="95" t="s">
-        <v>362</v>
+        <v>495</v>
       </c>
       <c r="AT9" s="96"/>
       <c r="AU9" s="96"/>
@@ -8417,7 +8852,7 @@
       <c r="AQ10" s="96"/>
       <c r="AR10" s="97"/>
       <c r="AS10" s="549" t="s">
-        <v>368</v>
+        <v>488</v>
       </c>
       <c r="AT10" s="96"/>
       <c r="AU10" s="96"/>
@@ -8433,7 +8868,7 @@
       <c r="BE10" s="96"/>
       <c r="BF10" s="97"/>
       <c r="BG10" s="551" t="s">
-        <v>370</v>
+        <v>489</v>
       </c>
       <c r="BH10" s="47"/>
       <c r="BI10" s="47"/>
@@ -8523,7 +8958,7 @@
       <c r="AQ11" s="96"/>
       <c r="AR11" s="97"/>
       <c r="AS11" s="549" t="s">
-        <v>375</v>
+        <v>490</v>
       </c>
       <c r="AT11" s="96"/>
       <c r="AU11" s="96"/>
@@ -8539,7 +8974,7 @@
       <c r="BE11" s="96"/>
       <c r="BF11" s="97"/>
       <c r="BG11" s="98" t="s">
-        <v>376</v>
+        <v>491</v>
       </c>
       <c r="BH11" s="99"/>
       <c r="BI11" s="99"/>
@@ -8747,7 +9182,7 @@
       <c r="AQ13" s="96"/>
       <c r="AR13" s="97"/>
       <c r="AS13" s="245" t="s">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="AT13" s="246"/>
       <c r="AU13" s="246"/>
@@ -8861,7 +9296,7 @@
       <c r="AQ14" s="96"/>
       <c r="AR14" s="97"/>
       <c r="AS14" s="254" t="s">
-        <v>418</v>
+        <v>492</v>
       </c>
       <c r="AT14" s="255"/>
       <c r="AU14" s="255"/>
@@ -8877,7 +9312,7 @@
       <c r="BE14" s="255"/>
       <c r="BF14" s="256"/>
       <c r="BG14" s="98" t="s">
-        <v>423</v>
+        <v>494</v>
       </c>
       <c r="BH14" s="99"/>
       <c r="BI14" s="99"/>
@@ -8974,7 +9409,7 @@
       <c r="AQ15" s="96"/>
       <c r="AR15" s="97"/>
       <c r="AS15" s="245" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="AT15" s="246"/>
       <c r="AU15" s="246"/>
@@ -9092,7 +9527,7 @@
       <c r="AQ16" s="96"/>
       <c r="AR16" s="97"/>
       <c r="AS16" s="245" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="AT16" s="246"/>
       <c r="AU16" s="246"/>
@@ -9206,7 +9641,7 @@
       <c r="AQ17" s="96"/>
       <c r="AR17" s="97"/>
       <c r="AS17" s="455" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="AT17" s="456"/>
       <c r="AU17" s="456"/>
@@ -9221,25 +9656,25 @@
       <c r="BD17" s="456"/>
       <c r="BE17" s="456"/>
       <c r="BF17" s="457"/>
-      <c r="BG17" s="557" t="s">
-        <v>441</v>
-      </c>
-      <c r="BH17" s="156"/>
-      <c r="BI17" s="156"/>
-      <c r="BJ17" s="156"/>
-      <c r="BK17" s="156"/>
-      <c r="BL17" s="156"/>
-      <c r="BM17" s="156"/>
-      <c r="BN17" s="156"/>
-      <c r="BO17" s="156"/>
-      <c r="BP17" s="156"/>
-      <c r="BQ17" s="156"/>
-      <c r="BR17" s="156"/>
-      <c r="BS17" s="156"/>
-      <c r="BT17" s="156"/>
-      <c r="BU17" s="568"/>
-      <c r="BV17" s="568"/>
-      <c r="BW17" s="156"/>
+      <c r="BG17" s="601" t="s">
+        <v>485</v>
+      </c>
+      <c r="BH17" s="599"/>
+      <c r="BI17" s="599"/>
+      <c r="BJ17" s="599"/>
+      <c r="BK17" s="599"/>
+      <c r="BL17" s="599"/>
+      <c r="BM17" s="599"/>
+      <c r="BN17" s="599"/>
+      <c r="BO17" s="599"/>
+      <c r="BP17" s="599"/>
+      <c r="BQ17" s="599"/>
+      <c r="BR17" s="599"/>
+      <c r="BS17" s="599"/>
+      <c r="BT17" s="599"/>
+      <c r="BU17" s="599"/>
+      <c r="BV17" s="599"/>
+      <c r="BW17" s="600"/>
       <c r="BX17" s="91" t="s">
         <v>364</v>
       </c>
@@ -9320,7 +9755,7 @@
       <c r="AQ18" s="96"/>
       <c r="AR18" s="453"/>
       <c r="AS18" s="511" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="AT18" s="512"/>
       <c r="AU18" s="512"/>
@@ -9336,7 +9771,7 @@
       <c r="BE18" s="512"/>
       <c r="BF18" s="513"/>
       <c r="BG18" s="461" t="s">
-        <v>446</v>
+        <v>487</v>
       </c>
       <c r="BH18" s="387"/>
       <c r="BI18" s="387"/>
@@ -9486,7 +9921,7 @@
       <c r="CG19" s="145"/>
       <c r="CH19" s="146"/>
     </row>
-    <row r="20" customHeight="1" ht="82" customFormat="1" s="46">
+    <row r="20" customHeight="1" ht="81" customFormat="1" s="46">
       <c r="A20" s="347">
         <v>12</v>
       </c>
@@ -9601,7 +10036,7 @@
       <c r="CH20" s="146"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="238">
     <mergeCell ref="A2:AD3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="K4:R4"/>
@@ -9785,6 +10220,7 @@
     <mergeCell ref="AK17:AM17"/>
     <mergeCell ref="AN17:AR17"/>
     <mergeCell ref="AS17:BF17"/>
+    <mergeCell ref="BG17:BW17"/>
     <mergeCell ref="BX17:CA17"/>
     <mergeCell ref="CB17:CD17"/>
     <mergeCell ref="CE17:CH17"/>
@@ -9851,7 +10287,7 @@
   <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="K29" sqref="K29" activeCellId="0"/>
+      <selection activeCell="E39" sqref="E39" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.3" outlineLevelRow="0" defaultColWidth="8.796875" outlineLevelCol="0"/>
@@ -9880,155 +10316,107 @@
       </c>
     </row>
     <row r="2" customFormat="1" s="304"/>
+    <row r="3" customFormat="1" s="304">
+      <c r="B3" s="575"/>
+      <c r="C3" s="575"/>
+      <c r="D3" s="575"/>
+      <c r="E3" s="575"/>
+      <c r="F3" s="575"/>
+      <c r="G3" s="575"/>
+      <c r="H3" s="575"/>
+      <c r="I3" s="575"/>
+      <c r="J3" s="575"/>
+      <c r="K3" s="575"/>
+      <c r="L3" s="575"/>
+      <c r="M3" s="575"/>
+      <c r="N3" s="571"/>
+      <c r="O3" s="313"/>
+    </row>
     <row r="4" customFormat="1" s="304">
-      <c r="B4" s="576"/>
-      <c r="C4" s="577"/>
-      <c r="D4" s="577"/>
-      <c r="E4" s="577"/>
-      <c r="F4" s="577"/>
-      <c r="G4" s="577"/>
-      <c r="H4" s="577"/>
-      <c r="I4" s="577"/>
-      <c r="J4" s="577"/>
-      <c r="K4" s="577"/>
-      <c r="L4" s="577"/>
-      <c r="M4" s="577"/>
-      <c r="N4" s="571"/>
-      <c r="O4" s="309"/>
+      <c r="B4" s="572" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="579"/>
+      <c r="D4" s="579"/>
+      <c r="E4" s="579"/>
+      <c r="F4" s="579"/>
+      <c r="G4" s="579"/>
+      <c r="H4" s="579"/>
+      <c r="I4" s="579"/>
+      <c r="J4" s="579"/>
+      <c r="K4" s="579"/>
+      <c r="L4" s="579"/>
+      <c r="M4" s="579"/>
+      <c r="N4" s="580"/>
+      <c r="O4" s="317"/>
     </row>
     <row r="5" customFormat="1" s="304">
-      <c r="B5" s="575"/>
-      <c r="C5" s="578"/>
-      <c r="D5" s="575"/>
-      <c r="E5" s="575"/>
-      <c r="F5" s="575"/>
-      <c r="G5" s="575"/>
-      <c r="H5" s="575"/>
-      <c r="I5" s="575"/>
-      <c r="J5" s="575"/>
-      <c r="K5" s="575"/>
-      <c r="L5" s="575"/>
-      <c r="M5" s="575"/>
-      <c r="N5" s="571"/>
-      <c r="O5" s="309"/>
-    </row>
-    <row r="6" customFormat="1" s="304">
-      <c r="B6" s="575"/>
-      <c r="C6" s="575"/>
-      <c r="D6" s="575"/>
-      <c r="E6" s="575"/>
-      <c r="F6" s="575"/>
-      <c r="G6" s="575"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="575"/>
-      <c r="J6" s="575"/>
-      <c r="K6" s="575"/>
-      <c r="L6" s="575"/>
-      <c r="M6" s="575"/>
-      <c r="N6" s="571"/>
-      <c r="O6" s="309"/>
-    </row>
-    <row r="7" customFormat="1" s="304">
-      <c r="B7" s="575"/>
-      <c r="C7" s="575"/>
-      <c r="D7" s="575"/>
-      <c r="E7" s="575"/>
-      <c r="F7" s="575"/>
-      <c r="G7" s="575"/>
-      <c r="H7" s="575"/>
-      <c r="I7" s="575"/>
-      <c r="J7" s="575"/>
-      <c r="K7" s="575"/>
-      <c r="L7" s="575"/>
-      <c r="M7" s="575"/>
-      <c r="N7" s="571"/>
-      <c r="O7" s="313"/>
-    </row>
-    <row r="8" customFormat="1" s="304">
-      <c r="B8" s="572" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="579"/>
-      <c r="D8" s="579"/>
-      <c r="E8" s="579"/>
-      <c r="F8" s="579"/>
-      <c r="G8" s="579"/>
-      <c r="H8" s="579"/>
-      <c r="I8" s="579"/>
-      <c r="J8" s="579"/>
-      <c r="K8" s="579"/>
-      <c r="L8" s="579"/>
-      <c r="M8" s="579"/>
-      <c r="N8" s="580"/>
-      <c r="O8" s="317"/>
-    </row>
-    <row r="9" customFormat="1" s="304">
-      <c r="C9" s="583" t="s">
+      <c r="C5" s="606" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="583" t="s">
+      <c r="D5" s="606" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="583" t="s">
+      <c r="E5" s="606" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="583" t="s">
+      <c r="F5" s="606" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="583" t="s">
+      <c r="G5" s="606" t="s">
         <v>97</v>
       </c>
-      <c r="H9" s="583" t="s">
+      <c r="H5" s="606" t="s">
         <v>98</v>
       </c>
-      <c r="I9" s="583" t="s">
+      <c r="I5" s="606" t="s">
         <v>99</v>
       </c>
-      <c r="J9" s="583" t="s">
+      <c r="J5" s="606" t="s">
         <v>100</v>
       </c>
-      <c r="K9" s="583" t="s">
+      <c r="K5" s="606" t="s">
         <v>107</v>
       </c>
-      <c r="L9" s="583" t="s">
+      <c r="L5" s="606" t="s">
         <v>102</v>
       </c>
-      <c r="M9" s="583" t="s">
+      <c r="M5" s="606" t="s">
         <v>103</v>
       </c>
-      <c r="N9" s="583" t="s">
+      <c r="N5" s="606" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10">
-      <c r="C10" s="581" t="s">
+    <row r="6">
+      <c r="C6" s="581" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="581"/>
-      <c r="E10" s="581" t="s">
+      <c r="D6" s="581"/>
+      <c r="E6" s="581" t="s">
         <v>110</v>
       </c>
-      <c r="F10" s="581"/>
-      <c r="G10" s="581"/>
-      <c r="H10" s="581">
+      <c r="F6" s="581"/>
+      <c r="G6" s="581"/>
+      <c r="H6" s="581">
         <v>0</v>
       </c>
-      <c r="I10" s="581"/>
-      <c r="J10" s="581"/>
-      <c r="K10" s="582" t="s">
+      <c r="I6" s="581"/>
+      <c r="J6" s="581"/>
+      <c r="K6" s="582" t="s">
         <v>116</v>
       </c>
-      <c r="L10" s="581"/>
-      <c r="M10" s="581"/>
-      <c r="N10" s="581"/>
-    </row>
-    <row r="17" customFormat="1" s="304"/>
-    <row r="56" customFormat="1" s="304"/>
-    <row r="96" customFormat="1" s="304"/>
-    <row r="104" customFormat="1" s="304"/>
-    <row r="109" customFormat="1" s="304"/>
-    <row r="114" customFormat="1" s="304"/>
-    <row r="122" customFormat="1" s="304"/>
+      <c r="L6" s="581"/>
+      <c r="M6" s="581"/>
+      <c r="N6" s="581"/>
+    </row>
+    <row r="13" customFormat="1" s="304"/>
+    <row r="52" customFormat="1" s="304"/>
+    <row r="92" customFormat="1" s="304"/>
+    <row r="100" customFormat="1" s="304"/>
+    <row r="105" customFormat="1" s="304"/>
+    <row r="110" customFormat="1" s="304"/>
+    <row r="118" customFormat="1" s="304"/>
   </sheetData>
   <phoneticPr fontId="26" type="noConversion"/>
   <hyperlinks>
@@ -10044,7 +10432,7 @@
   <dimension ref="A2:B57"/>
   <sheetViews>
     <sheetView showGridLines="false" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17" activeCellId="0"/>
+      <selection activeCell="S30" sqref="S30" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
